--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787528.7370441683</v>
+        <v>786231.6524470053</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1693341.472489223</v>
+        <v>1693341.472489222</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.02949848241227</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>347.648855220908</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>46.22960105707647</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>40.93515401597897</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.3178942517236</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>242.9135310235002</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>123.2067863081949</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.08652326705251</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>375.705448061145</v>
       </c>
       <c r="C8" t="n">
-        <v>322.649295062619</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82.85734077805898</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>134.002950790148</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>396.7339930256583</v>
+        <v>220.21987867975</v>
       </c>
       <c r="H11" t="n">
-        <v>279.5834739041102</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.12347179176368</v>
+        <v>68.00666947778936</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.0217925423652</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5780908531684</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>90.90625219209493</v>
+        <v>163.6438573839239</v>
       </c>
       <c r="H13" t="n">
         <v>135.9114095300244</v>
       </c>
       <c r="I13" t="n">
-        <v>79.00700416583423</v>
+        <v>6.269398974004788</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.096525434899778</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S13" t="n">
         <v>152.5688206581533</v>
@@ -1618,10 +1618,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.7339930256583</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.00666947778936</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>20.67436587974247</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5780908531684</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>329.152140264613</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6438573839239</v>
+        <v>99.00277762699523</v>
       </c>
       <c r="H16" t="n">
         <v>135.9114095300244</v>
       </c>
       <c r="I16" t="n">
-        <v>6.269398974005673</v>
+        <v>79.00700416583423</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.096525434899778</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.5688206581533</v>
@@ -1861,7 +1861,7 @@
         <v>396.7339930256583</v>
       </c>
       <c r="H17" t="n">
-        <v>279.5834739041108</v>
+        <v>279.5834739041102</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I19" t="n">
-        <v>79.00700416583423</v>
+        <v>14.36592440890527</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>87.92774090122305</v>
+        <v>152.5688206581533</v>
       </c>
       <c r="T19" t="n">
         <v>242.1751312751644</v>
@@ -2098,7 +2098,7 @@
         <v>396.7339930256583</v>
       </c>
       <c r="H20" t="n">
-        <v>279.5834739041102</v>
+        <v>279.58347390411</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I25" t="n">
-        <v>14.36592440890527</v>
+        <v>14.3659244089053</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>68.00666947778936</v>
       </c>
       <c r="T26" t="n">
-        <v>215.0217925423652</v>
+        <v>215.0217925423651</v>
       </c>
       <c r="U26" t="n">
         <v>256.5780908531684</v>
@@ -2620,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864831</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2733,7 +2733,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I28" t="n">
-        <v>14.36592440890527</v>
+        <v>6.269398974005378</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S28" t="n">
         <v>152.5688206581533</v>
@@ -2970,7 +2970,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I31" t="n">
-        <v>14.36592440890527</v>
+        <v>14.3659244089053</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I34" t="n">
-        <v>14.36592440890527</v>
+        <v>6.269398974005378</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S34" t="n">
         <v>152.5688206581533</v>
@@ -3283,7 +3283,7 @@
         <v>396.7339930256583</v>
       </c>
       <c r="H35" t="n">
-        <v>279.5834739041102</v>
+        <v>279.5834739041117</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633441</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>87.9277409012244</v>
+        <v>152.5688206581533</v>
       </c>
       <c r="T37" t="n">
-        <v>242.1751312751644</v>
+        <v>177.5340515182355</v>
       </c>
       <c r="U37" t="n">
         <v>275.632770475398</v>
@@ -3681,7 +3681,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I40" t="n">
-        <v>14.36592440890355</v>
+        <v>6.269398974005378</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S40" t="n">
         <v>152.5688206581533</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>279.5834739041102</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.00666947778936</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>215.0217925423652</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5780908531684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>329.1521402646121</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>336.2019507305806</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6438573839239</v>
+        <v>90.90625219209493</v>
       </c>
       <c r="H43" t="n">
         <v>135.9114095300244</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>8.096525434899778</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S43" t="n">
-        <v>79.83121546632448</v>
+        <v>152.5688206581533</v>
       </c>
       <c r="T43" t="n">
         <v>242.1751312751644</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>238.5143088006658</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.7339930256583</v>
+        <v>56.33226440561148</v>
       </c>
       <c r="H44" t="n">
         <v>279.5834739041102</v>
@@ -4030,22 +4030,22 @@
         <v>68.00666947778936</v>
       </c>
       <c r="T44" t="n">
-        <v>215.0217925423652</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4155,7 +4155,7 @@
         <v>135.9114095300244</v>
       </c>
       <c r="I46" t="n">
-        <v>6.269398974004788</v>
+        <v>14.36592440890471</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>8.096525434899778</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.5688206581533</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>1167.069156190556</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>1132.967087414384</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>704.3854131516518</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>674.6510723503511</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>653.1182849437999</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.8321612434534</v>
+        <v>1189.32832263506</v>
       </c>
     </row>
     <row r="3">
@@ -4406,22 +4406,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>753.2266345819453</v>
+        <v>474.7936338350505</v>
       </c>
       <c r="C4" t="n">
-        <v>753.2266345819453</v>
+        <v>474.7936338350505</v>
       </c>
       <c r="D4" t="n">
-        <v>587.348641783468</v>
+        <v>474.7936338350505</v>
       </c>
       <c r="E4" t="n">
-        <v>417.5906380342053</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>240.8835839959615</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>75.29230902178912</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4497,10 +4497,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>998.6183892485328</v>
+        <v>720.185388501638</v>
       </c>
       <c r="X4" t="n">
-        <v>753.2266345819453</v>
+        <v>474.7936338350505</v>
       </c>
       <c r="Y4" t="n">
-        <v>753.2266345819453</v>
+        <v>474.7936338350505</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>367.3910961563706</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>333.289027380198</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4597,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1217.07884972191</v>
       </c>
       <c r="X5" t="n">
-        <v>914.6089660449918</v>
+        <v>797.936386301221</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.3228423446452</v>
+        <v>793.6906666412784</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4649,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>564.4509961277927</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="C7" t="n">
-        <v>391.8892846110176</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D7" t="n">
-        <v>226.0112918125403</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E7" t="n">
-        <v>56.25328806327755</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W7" t="n">
-        <v>983.6892855326716</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X7" t="n">
-        <v>983.6892855326716</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y7" t="n">
-        <v>756.2696148467799</v>
+        <v>386.9570914377655</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>954.6459714054656</v>
       </c>
       <c r="C8" t="n">
-        <v>520.7722471151849</v>
+        <v>920.543902629293</v>
       </c>
       <c r="D8" t="n">
-        <v>488.9028663300335</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1334.146423992481</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4883,25 +4883,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>480.0602407069692</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="O9" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="P9" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="C10" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4977,10 +4977,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>1580.667833301518</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4992,22 +4992,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.091239336891</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V10" t="n">
-        <v>951.1357312073217</v>
+        <v>856.8552769657022</v>
       </c>
       <c r="W10" t="n">
-        <v>679.1093267936133</v>
+        <v>584.8288725519938</v>
       </c>
       <c r="X10" t="n">
-        <v>433.7175721270257</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="Y10" t="n">
-        <v>206.297901441134</v>
+        <v>339.4371178854062</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2478.083328071755</v>
+        <v>1589.511263884984</v>
       </c>
       <c r="C11" t="n">
-        <v>2039.940855255178</v>
+        <v>1151.368791068408</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.031070429623</v>
+        <v>715.459006242852</v>
       </c>
       <c r="E11" t="n">
-        <v>1170.256325587918</v>
+        <v>281.6842614011471</v>
       </c>
       <c r="F11" t="n">
-        <v>742.3888959971255</v>
+        <v>281.6842614011471</v>
       </c>
       <c r="G11" t="n">
-        <v>341.6474889005009</v>
+        <v>59.23993950240975</v>
       </c>
       <c r="H11" t="n">
-        <v>59.23993950240976</v>
+        <v>59.23993950240975</v>
       </c>
       <c r="I11" t="n">
         <v>83.63463603559688</v>
       </c>
       <c r="J11" t="n">
-        <v>248.4576041852835</v>
+        <v>573.4938212467763</v>
       </c>
       <c r="K11" t="n">
-        <v>981.5518555276043</v>
+        <v>887.4725689772648</v>
       </c>
       <c r="L11" t="n">
-        <v>1083.079115487095</v>
+        <v>988.9998289367558</v>
       </c>
       <c r="M11" t="n">
-        <v>1196.047754400721</v>
+        <v>1101.968467850381</v>
       </c>
       <c r="N11" t="n">
-        <v>1310.844343997044</v>
+        <v>1216.765057446705</v>
       </c>
       <c r="O11" t="n">
-        <v>2043.938595339365</v>
+        <v>1949.859308789026</v>
       </c>
       <c r="P11" t="n">
-        <v>2136.454774172752</v>
+        <v>2682.953560131346</v>
       </c>
       <c r="Q11" t="n">
         <v>2752.429357504415</v>
@@ -5068,25 +5068,25 @@
         <v>2961.996975120488</v>
       </c>
       <c r="S11" t="n">
-        <v>2897.225791492444</v>
+        <v>2893.303369587367</v>
       </c>
       <c r="T11" t="n">
-        <v>2897.225791492444</v>
+        <v>2676.109639746594</v>
       </c>
       <c r="U11" t="n">
-        <v>2897.225791492444</v>
+        <v>2416.93985100602</v>
       </c>
       <c r="V11" t="n">
-        <v>2897.225791492444</v>
+        <v>2416.93985100602</v>
       </c>
       <c r="W11" t="n">
-        <v>2897.225791492444</v>
+        <v>2416.93985100602</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.083328071755</v>
+        <v>1997.797387585331</v>
       </c>
       <c r="Y11" t="n">
-        <v>2478.083328071755</v>
+        <v>1589.511263884984</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>182.6174374443819</v>
       </c>
       <c r="G12" t="n">
-        <v>97.5835656638349</v>
+        <v>97.58356566383489</v>
       </c>
       <c r="H12" t="n">
-        <v>59.23993950240976</v>
+        <v>59.23993950240975</v>
       </c>
       <c r="I12" t="n">
         <v>97.15534696371266</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1053.058505532395</v>
+        <v>1053.058505532394</v>
       </c>
       <c r="C13" t="n">
-        <v>880.4967940156195</v>
+        <v>880.496794015619</v>
       </c>
       <c r="D13" t="n">
-        <v>714.6188012171422</v>
+        <v>714.6188012171417</v>
       </c>
       <c r="E13" t="n">
-        <v>544.8607974678794</v>
+        <v>544.8607974678789</v>
       </c>
       <c r="F13" t="n">
-        <v>368.1537434296356</v>
+        <v>368.1537434296351</v>
       </c>
       <c r="G13" t="n">
-        <v>276.3292462659034</v>
+        <v>202.8569177893079</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0449942153736</v>
+        <v>65.57266573877823</v>
       </c>
       <c r="I13" t="n">
-        <v>59.23993950240976</v>
+        <v>59.23993950240975</v>
       </c>
       <c r="J13" t="n">
-        <v>166.2229229686834</v>
+        <v>166.2229229686835</v>
       </c>
       <c r="K13" t="n">
-        <v>474.5102642948971</v>
+        <v>474.5102642948966</v>
       </c>
       <c r="L13" t="n">
-        <v>935.6255775176739</v>
+        <v>935.6255775176736</v>
       </c>
       <c r="M13" t="n">
-        <v>1440.347206382297</v>
+        <v>1440.347206382296</v>
       </c>
       <c r="N13" t="n">
         <v>1926.768118362181</v>
@@ -5226,10 +5226,10 @@
         <v>2953.818666600387</v>
       </c>
       <c r="S13" t="n">
-        <v>2799.708746743667</v>
+        <v>2799.708746743666</v>
       </c>
       <c r="T13" t="n">
-        <v>2555.087402021279</v>
+        <v>2555.087402021278</v>
       </c>
       <c r="U13" t="n">
         <v>2276.670462147139</v>
@@ -5244,7 +5244,7 @@
         <v>1472.296794937273</v>
       </c>
       <c r="Y13" t="n">
-        <v>1244.877124251382</v>
+        <v>1244.877124251381</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1794.934371577039</v>
+        <v>1767.808349082871</v>
       </c>
       <c r="C14" t="n">
-        <v>1356.791898760462</v>
+        <v>1329.665876266295</v>
       </c>
       <c r="D14" t="n">
-        <v>920.8821139349068</v>
+        <v>893.7560914407391</v>
       </c>
       <c r="E14" t="n">
-        <v>487.107369093202</v>
+        <v>459.9813465990343</v>
       </c>
       <c r="F14" t="n">
-        <v>59.23993950240977</v>
+        <v>459.9813465990343</v>
       </c>
       <c r="G14" t="n">
-        <v>59.23993950240977</v>
+        <v>59.23993950240978</v>
       </c>
       <c r="H14" t="n">
-        <v>59.23993950240977</v>
+        <v>59.23993950240978</v>
       </c>
       <c r="I14" t="n">
-        <v>83.6346360355969</v>
+        <v>83.63463603559691</v>
       </c>
       <c r="J14" t="n">
         <v>573.4938212467763</v>
       </c>
       <c r="K14" t="n">
-        <v>1134.82293480627</v>
+        <v>1306.588072589097</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.350194765761</v>
+        <v>1408.115332548588</v>
       </c>
       <c r="M14" t="n">
-        <v>1349.318833679387</v>
+        <v>1521.083971462213</v>
       </c>
       <c r="N14" t="n">
-        <v>1464.115423275711</v>
+        <v>1635.880561058537</v>
       </c>
       <c r="O14" t="n">
-        <v>1572.514587583489</v>
+        <v>2368.974812400858</v>
       </c>
       <c r="P14" t="n">
-        <v>2305.60883892581</v>
+        <v>2852.107624884405</v>
       </c>
       <c r="Q14" t="n">
         <v>2921.583422257473</v>
@@ -5305,25 +5305,25 @@
         <v>2961.996975120489</v>
       </c>
       <c r="S14" t="n">
-        <v>2961.996975120489</v>
+        <v>2893.303369587368</v>
       </c>
       <c r="T14" t="n">
-        <v>2961.996975120489</v>
+        <v>2872.420171729043</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.996975120489</v>
+        <v>2613.250382988468</v>
       </c>
       <c r="V14" t="n">
-        <v>2961.996975120489</v>
+        <v>2613.250382988468</v>
       </c>
       <c r="W14" t="n">
-        <v>2961.996975120489</v>
+        <v>2613.250382988468</v>
       </c>
       <c r="X14" t="n">
-        <v>2629.520065762294</v>
+        <v>2194.107919567779</v>
       </c>
       <c r="Y14" t="n">
-        <v>2221.233942061947</v>
+        <v>2194.107919567779</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>97.58356566383492</v>
       </c>
       <c r="H15" t="n">
-        <v>59.23993950240977</v>
+        <v>59.23993950240978</v>
       </c>
       <c r="I15" t="n">
-        <v>97.15534696371266</v>
+        <v>97.15534696371269</v>
       </c>
       <c r="J15" t="n">
-        <v>454.2357367164866</v>
+        <v>454.2357367164867</v>
       </c>
       <c r="K15" t="n">
-        <v>588.4267622644032</v>
+        <v>509.8211254749862</v>
       </c>
       <c r="L15" t="n">
-        <v>663.1681771132372</v>
+        <v>584.5625403238203</v>
       </c>
       <c r="M15" t="n">
-        <v>750.3878829170377</v>
+        <v>671.7822461276207</v>
       </c>
       <c r="N15" t="n">
-        <v>839.9160348031302</v>
+        <v>761.3103980137132</v>
       </c>
       <c r="O15" t="n">
-        <v>921.8168030347168</v>
+        <v>843.2111662452999</v>
       </c>
       <c r="P15" t="n">
         <v>987.5493900398382</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1053.058505532395</v>
+        <v>1061.236814052496</v>
       </c>
       <c r="C16" t="n">
-        <v>880.4967940156199</v>
+        <v>888.6751025357208</v>
       </c>
       <c r="D16" t="n">
-        <v>714.6188012171426</v>
+        <v>722.7971097372435</v>
       </c>
       <c r="E16" t="n">
-        <v>544.8607974678798</v>
+        <v>553.0391059879807</v>
       </c>
       <c r="F16" t="n">
-        <v>368.1537434296361</v>
+        <v>376.332051949737</v>
       </c>
       <c r="G16" t="n">
-        <v>202.8569177893089</v>
+        <v>276.3292462659034</v>
       </c>
       <c r="H16" t="n">
-        <v>65.57266573877914</v>
+        <v>139.0449942153737</v>
       </c>
       <c r="I16" t="n">
-        <v>59.23993950240977</v>
+        <v>59.23993950240978</v>
       </c>
       <c r="J16" t="n">
         <v>166.2229229686835</v>
@@ -5460,28 +5460,28 @@
         <v>2961.996975120489</v>
       </c>
       <c r="R16" t="n">
-        <v>2953.818666600388</v>
+        <v>2961.996975120489</v>
       </c>
       <c r="S16" t="n">
-        <v>2799.708746743667</v>
+        <v>2807.887055263768</v>
       </c>
       <c r="T16" t="n">
-        <v>2555.087402021279</v>
+        <v>2563.26571054138</v>
       </c>
       <c r="U16" t="n">
-        <v>2276.670462147139</v>
+        <v>2284.84877066724</v>
       </c>
       <c r="V16" t="n">
-        <v>1989.71495401757</v>
+        <v>1997.893262537671</v>
       </c>
       <c r="W16" t="n">
-        <v>1717.688549603861</v>
+        <v>1725.866858123962</v>
       </c>
       <c r="X16" t="n">
-        <v>1472.296794937274</v>
+        <v>1480.475103457375</v>
       </c>
       <c r="Y16" t="n">
-        <v>1244.877124251382</v>
+        <v>1253.055432771483</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>784.8857131262448</v>
       </c>
       <c r="G17" t="n">
-        <v>384.1443060296203</v>
+        <v>384.1443060296197</v>
       </c>
       <c r="H17" t="n">
         <v>101.7367566315285</v>
@@ -5515,28 +5515,28 @@
         <v>126.1314531647157</v>
       </c>
       <c r="J17" t="n">
-        <v>615.9906383758951</v>
+        <v>180.7359509229771</v>
       </c>
       <c r="K17" t="n">
-        <v>1532.178917717893</v>
+        <v>1096.924230264975</v>
       </c>
       <c r="L17" t="n">
-        <v>2024.125517573874</v>
+        <v>2273.511456477325</v>
       </c>
       <c r="M17" t="n">
-        <v>2137.094156487499</v>
+        <v>2386.48009539095</v>
       </c>
       <c r="N17" t="n">
-        <v>2251.890746083823</v>
+        <v>2501.276684987274</v>
       </c>
       <c r="O17" t="n">
-        <v>3340.469576961907</v>
+        <v>3589.855515865358</v>
       </c>
       <c r="P17" t="n">
-        <v>4261.295630628691</v>
+        <v>4510.681569532142</v>
       </c>
       <c r="Q17" t="n">
-        <v>4877.270213960353</v>
+        <v>5046.42427871341</v>
       </c>
       <c r="R17" t="n">
         <v>5086.837831576426</v>
@@ -5591,31 +5591,31 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I18" t="n">
-        <v>113.5884909323738</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J18" t="n">
-        <v>146.1105557189354</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K18" t="n">
-        <v>882.4294645478124</v>
+        <v>630.9235793935219</v>
       </c>
       <c r="L18" t="n">
-        <v>957.1708793966465</v>
+        <v>705.664994242356</v>
       </c>
       <c r="M18" t="n">
-        <v>1044.390585200447</v>
+        <v>792.8847000461564</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.918737086539</v>
+        <v>882.4128519322488</v>
       </c>
       <c r="O18" t="n">
-        <v>1215.819505318126</v>
+        <v>964.3136201638355</v>
       </c>
       <c r="P18" t="n">
-        <v>1687.957923895372</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q18" t="n">
-        <v>1731.89841753764</v>
+        <v>1614.7256394433</v>
       </c>
       <c r="R18" t="n">
         <v>1753.270793430986</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3251.371690464929</v>
+        <v>1103.733631181614</v>
       </c>
       <c r="C19" t="n">
-        <v>3078.809978948153</v>
+        <v>931.1719196648393</v>
       </c>
       <c r="D19" t="n">
-        <v>2912.931986149676</v>
+        <v>765.293926866362</v>
       </c>
       <c r="E19" t="n">
-        <v>2743.173982400413</v>
+        <v>595.5359231170992</v>
       </c>
       <c r="F19" t="n">
-        <v>2566.46692836217</v>
+        <v>418.8288690788554</v>
       </c>
       <c r="G19" t="n">
-        <v>2401.170102721842</v>
+        <v>253.5320434385282</v>
       </c>
       <c r="H19" t="n">
-        <v>2263.885850671313</v>
+        <v>116.2477913879985</v>
       </c>
       <c r="I19" t="n">
-        <v>2184.080795958349</v>
+        <v>101.7367566315285</v>
       </c>
       <c r="J19" t="n">
-        <v>2291.063779424623</v>
+        <v>208.7197400978022</v>
       </c>
       <c r="K19" t="n">
-        <v>2599.351120750836</v>
+        <v>517.0070814240158</v>
       </c>
       <c r="L19" t="n">
-        <v>3060.466433973613</v>
+        <v>978.1223946467927</v>
       </c>
       <c r="M19" t="n">
-        <v>3565.188062838236</v>
+        <v>1482.844023511416</v>
       </c>
       <c r="N19" t="n">
-        <v>4051.608974818121</v>
+        <v>1969.2649354913</v>
       </c>
       <c r="O19" t="n">
-        <v>4512.069079385683</v>
+        <v>2429.725040058862</v>
       </c>
       <c r="P19" t="n">
-        <v>4894.479596938932</v>
+        <v>2812.135557612112</v>
       </c>
       <c r="Q19" t="n">
-        <v>5086.837831576426</v>
+        <v>3004.493792249607</v>
       </c>
       <c r="R19" t="n">
-        <v>5086.837831576426</v>
+        <v>3004.493792249607</v>
       </c>
       <c r="S19" t="n">
-        <v>4998.0219316762</v>
+        <v>2850.383872392887</v>
       </c>
       <c r="T19" t="n">
-        <v>4753.400586953812</v>
+        <v>2605.762527670498</v>
       </c>
       <c r="U19" t="n">
-        <v>4474.983647079673</v>
+        <v>2327.345587796359</v>
       </c>
       <c r="V19" t="n">
-        <v>4188.028138950103</v>
+        <v>2040.390079666789</v>
       </c>
       <c r="W19" t="n">
-        <v>3916.001734536395</v>
+        <v>1768.363675253081</v>
       </c>
       <c r="X19" t="n">
-        <v>3670.609979869807</v>
+        <v>1522.971920586493</v>
       </c>
       <c r="Y19" t="n">
-        <v>3443.190309183916</v>
+        <v>1295.552249900602</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2520.580145200874</v>
+        <v>2520.580145200873</v>
       </c>
       <c r="C20" t="n">
         <v>2082.437672384297</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.527887558742</v>
+        <v>1646.527887558741</v>
       </c>
       <c r="E20" t="n">
-        <v>1212.753142717037</v>
+        <v>1212.753142717036</v>
       </c>
       <c r="F20" t="n">
-        <v>784.8857131262448</v>
+        <v>784.8857131262439</v>
       </c>
       <c r="G20" t="n">
-        <v>384.1443060296197</v>
+        <v>384.1443060296194</v>
       </c>
       <c r="H20" t="n">
         <v>101.7367566315285</v>
       </c>
       <c r="I20" t="n">
-        <v>126.1314531647157</v>
+        <v>126.1314531647156</v>
       </c>
       <c r="J20" t="n">
         <v>180.7359509229771</v>
       </c>
       <c r="K20" t="n">
-        <v>262.5739383067966</v>
+        <v>1096.924230264975</v>
       </c>
       <c r="L20" t="n">
-        <v>1296.333535280934</v>
+        <v>2273.511456477325</v>
       </c>
       <c r="M20" t="n">
-        <v>2555.325898596099</v>
+        <v>3532.50381979249</v>
       </c>
       <c r="N20" t="n">
-        <v>3795.85347162887</v>
+        <v>4773.03139282526</v>
       </c>
       <c r="O20" t="n">
-        <v>4884.432302506954</v>
+        <v>4881.430557133039</v>
       </c>
       <c r="P20" t="n">
-        <v>4976.948481340341</v>
+        <v>4973.946735966425</v>
       </c>
       <c r="Q20" t="n">
-        <v>5046.42427871341</v>
+        <v>5043.422533339494</v>
       </c>
       <c r="R20" t="n">
-        <v>5086.837831576426</v>
+        <v>5086.837831576425</v>
       </c>
       <c r="S20" t="n">
-        <v>5018.144226043305</v>
+        <v>5018.144226043304</v>
       </c>
       <c r="T20" t="n">
-        <v>4800.950496202532</v>
+        <v>4800.950496202531</v>
       </c>
       <c r="U20" t="n">
-        <v>4541.780707461958</v>
+        <v>4541.780707461957</v>
       </c>
       <c r="V20" t="n">
-        <v>4179.163757395784</v>
+        <v>4179.163757395783</v>
       </c>
       <c r="W20" t="n">
-        <v>3774.308302806818</v>
+        <v>3774.308302806817</v>
       </c>
       <c r="X20" t="n">
         <v>3355.165839386128</v>
       </c>
       <c r="Y20" t="n">
-        <v>2946.879715685782</v>
+        <v>2946.879715685781</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3937.73229579263</v>
+        <v>604.1652576471897</v>
       </c>
       <c r="C21" t="n">
-        <v>3831.275834629272</v>
+        <v>497.708796483832</v>
       </c>
       <c r="D21" t="n">
-        <v>3736.185545775825</v>
+        <v>402.6185076303853</v>
       </c>
       <c r="E21" t="n">
-        <v>3642.065131102779</v>
+        <v>308.498092957339</v>
       </c>
       <c r="F21" t="n">
-        <v>3558.681292718941</v>
+        <v>225.1142545735006</v>
       </c>
       <c r="G21" t="n">
-        <v>3473.647420938394</v>
+        <v>140.0803827929536</v>
       </c>
       <c r="H21" t="n">
-        <v>3435.303794776969</v>
+        <v>101.7367566315285</v>
       </c>
       <c r="I21" t="n">
-        <v>3473.219202238271</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J21" t="n">
-        <v>3830.299591991045</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K21" t="n">
-        <v>3964.490617538961</v>
+        <v>630.9235793935219</v>
       </c>
       <c r="L21" t="n">
-        <v>4039.232032387795</v>
+        <v>705.664994242356</v>
       </c>
       <c r="M21" t="n">
-        <v>4126.451738191596</v>
+        <v>792.8847000461564</v>
       </c>
       <c r="N21" t="n">
-        <v>4215.979890077689</v>
+        <v>882.4128519322488</v>
       </c>
       <c r="O21" t="n">
-        <v>4297.880658309276</v>
+        <v>964.3136201638355</v>
       </c>
       <c r="P21" t="n">
-        <v>4363.613245314396</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q21" t="n">
-        <v>4948.29267758874</v>
+        <v>1614.7256394433</v>
       </c>
       <c r="R21" t="n">
-        <v>5086.837831576426</v>
+        <v>1753.270793430986</v>
       </c>
       <c r="S21" t="n">
-        <v>5029.906113463821</v>
+        <v>1696.339075318381</v>
       </c>
       <c r="T21" t="n">
-        <v>4901.143124614837</v>
+        <v>1567.576086469397</v>
       </c>
       <c r="U21" t="n">
-        <v>4724.829684059099</v>
+        <v>1391.262645913659</v>
       </c>
       <c r="V21" t="n">
-        <v>4525.712166121099</v>
+        <v>1192.145127975658</v>
       </c>
       <c r="W21" t="n">
-        <v>4340.389411854292</v>
+        <v>1006.822373708852</v>
       </c>
       <c r="X21" t="n">
-        <v>4185.521976093172</v>
+        <v>851.9549379477321</v>
       </c>
       <c r="Y21" t="n">
-        <v>4059.036196872393</v>
+        <v>725.4691587269529</v>
       </c>
     </row>
     <row r="22">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2520.580145200874</v>
+        <v>2520.580145200873</v>
       </c>
       <c r="C23" t="n">
         <v>2082.437672384297</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.527887558742</v>
+        <v>1646.527887558741</v>
       </c>
       <c r="E23" t="n">
-        <v>1212.753142717037</v>
+        <v>1212.753142717036</v>
       </c>
       <c r="F23" t="n">
-        <v>784.8857131262448</v>
+        <v>784.8857131262439</v>
       </c>
       <c r="G23" t="n">
         <v>384.1443060296197</v>
@@ -5986,55 +5986,55 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I23" t="n">
-        <v>126.1314531647157</v>
+        <v>126.1314531647156</v>
       </c>
       <c r="J23" t="n">
-        <v>615.9906383758951</v>
+        <v>180.7359509229771</v>
       </c>
       <c r="K23" t="n">
-        <v>1532.178917717893</v>
+        <v>1096.924230264975</v>
       </c>
       <c r="L23" t="n">
-        <v>2708.766143930243</v>
+        <v>2273.511456477325</v>
       </c>
       <c r="M23" t="n">
-        <v>3945.583697891202</v>
+        <v>2386.48009539095</v>
       </c>
       <c r="N23" t="n">
-        <v>4060.380287487526</v>
+        <v>2501.276684987274</v>
       </c>
       <c r="O23" t="n">
-        <v>4168.779451795304</v>
+        <v>3589.855515865358</v>
       </c>
       <c r="P23" t="n">
-        <v>4261.295630628691</v>
+        <v>4510.681569532142</v>
       </c>
       <c r="Q23" t="n">
-        <v>4877.270213960353</v>
+        <v>5046.424278713409</v>
       </c>
       <c r="R23" t="n">
-        <v>5086.837831576426</v>
+        <v>5086.837831576425</v>
       </c>
       <c r="S23" t="n">
-        <v>5018.144226043305</v>
+        <v>5018.144226043304</v>
       </c>
       <c r="T23" t="n">
-        <v>4800.950496202532</v>
+        <v>4800.950496202531</v>
       </c>
       <c r="U23" t="n">
-        <v>4541.780707461958</v>
+        <v>4541.780707461957</v>
       </c>
       <c r="V23" t="n">
-        <v>4179.163757395784</v>
+        <v>4179.163757395783</v>
       </c>
       <c r="W23" t="n">
-        <v>3774.308302806818</v>
+        <v>3774.308302806817</v>
       </c>
       <c r="X23" t="n">
         <v>3355.165839386128</v>
       </c>
       <c r="Y23" t="n">
-        <v>2946.879715685782</v>
+        <v>2946.879715685781</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.1652576471898</v>
+        <v>604.1652576471897</v>
       </c>
       <c r="C24" t="n">
-        <v>497.7087964838321</v>
+        <v>497.708796483832</v>
       </c>
       <c r="D24" t="n">
-        <v>402.6185076303854</v>
+        <v>402.6185076303853</v>
       </c>
       <c r="E24" t="n">
-        <v>308.4980929573391</v>
+        <v>308.498092957339</v>
       </c>
       <c r="F24" t="n">
-        <v>225.1142545735007</v>
+        <v>225.1142545735006</v>
       </c>
       <c r="G24" t="n">
-        <v>140.0803827929537</v>
+        <v>140.0803827929536</v>
       </c>
       <c r="H24" t="n">
         <v>101.7367566315285</v>
@@ -6071,19 +6071,19 @@
         <v>496.7325538456054</v>
       </c>
       <c r="K24" t="n">
-        <v>630.9235793935219</v>
+        <v>552.3179426041049</v>
       </c>
       <c r="L24" t="n">
-        <v>705.664994242356</v>
+        <v>627.059357452939</v>
       </c>
       <c r="M24" t="n">
-        <v>792.8847000461564</v>
+        <v>714.2790632567394</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4128519322488</v>
+        <v>803.8072151428319</v>
       </c>
       <c r="O24" t="n">
-        <v>964.3136201638355</v>
+        <v>885.7079833744185</v>
       </c>
       <c r="P24" t="n">
         <v>1030.046207168957</v>
@@ -6110,10 +6110,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X24" t="n">
-        <v>851.9549379477322</v>
+        <v>851.9549379477321</v>
       </c>
       <c r="Y24" t="n">
-        <v>725.469158726953</v>
+        <v>725.4691587269529</v>
       </c>
     </row>
     <row r="25">
@@ -6223,49 +6223,49 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I26" t="n">
-        <v>126.1314531647157</v>
+        <v>126.1314531647156</v>
       </c>
       <c r="J26" t="n">
-        <v>180.7359509229772</v>
+        <v>180.7359509229771</v>
       </c>
       <c r="K26" t="n">
-        <v>262.5739383067967</v>
+        <v>262.5739383067966</v>
       </c>
       <c r="L26" t="n">
-        <v>1439.161164519147</v>
+        <v>1067.548598890482</v>
       </c>
       <c r="M26" t="n">
-        <v>2698.153527834313</v>
+        <v>1180.517237804107</v>
       </c>
       <c r="N26" t="n">
-        <v>3938.681100867084</v>
+        <v>2421.044810836878</v>
       </c>
       <c r="O26" t="n">
-        <v>4884.432302506954</v>
+        <v>3509.623641714962</v>
       </c>
       <c r="P26" t="n">
-        <v>4976.948481340341</v>
+        <v>4430.449695381746</v>
       </c>
       <c r="Q26" t="n">
-        <v>5046.42427871341</v>
+        <v>5046.424278713409</v>
       </c>
       <c r="R26" t="n">
-        <v>5086.837831576426</v>
+        <v>5086.837831576425</v>
       </c>
       <c r="S26" t="n">
-        <v>5018.144226043305</v>
+        <v>5018.144226043304</v>
       </c>
       <c r="T26" t="n">
-        <v>4800.950496202532</v>
+        <v>4800.950496202531</v>
       </c>
       <c r="U26" t="n">
-        <v>4541.780707461958</v>
+        <v>4541.780707461957</v>
       </c>
       <c r="V26" t="n">
-        <v>4179.163757395784</v>
+        <v>4179.163757395783</v>
       </c>
       <c r="W26" t="n">
-        <v>3774.308302806818</v>
+        <v>3774.308302806817</v>
       </c>
       <c r="X26" t="n">
         <v>3355.165839386128</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3937.73229579263</v>
+        <v>604.1652576471897</v>
       </c>
       <c r="C27" t="n">
-        <v>3831.275834629272</v>
+        <v>497.708796483832</v>
       </c>
       <c r="D27" t="n">
-        <v>3736.185545775825</v>
+        <v>402.6185076303853</v>
       </c>
       <c r="E27" t="n">
-        <v>3642.065131102779</v>
+        <v>308.498092957339</v>
       </c>
       <c r="F27" t="n">
-        <v>3558.681292718941</v>
+        <v>225.1142545735006</v>
       </c>
       <c r="G27" t="n">
-        <v>3473.647420938394</v>
+        <v>140.0803827929536</v>
       </c>
       <c r="H27" t="n">
-        <v>3435.303794776969</v>
+        <v>101.7367566315285</v>
       </c>
       <c r="I27" t="n">
-        <v>3473.219202238271</v>
+        <v>139.6521640928314</v>
       </c>
       <c r="J27" t="n">
-        <v>3830.299591991045</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K27" t="n">
-        <v>3964.490617538961</v>
+        <v>552.3179426041049</v>
       </c>
       <c r="L27" t="n">
-        <v>4039.232032387795</v>
+        <v>627.059357452939</v>
       </c>
       <c r="M27" t="n">
-        <v>4126.451738191596</v>
+        <v>714.2790632567394</v>
       </c>
       <c r="N27" t="n">
-        <v>4215.979890077689</v>
+        <v>803.8072151428319</v>
       </c>
       <c r="O27" t="n">
-        <v>4297.880658309276</v>
+        <v>885.7079833744185</v>
       </c>
       <c r="P27" t="n">
-        <v>4363.613245314396</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q27" t="n">
-        <v>4948.29267758874</v>
+        <v>1614.7256394433</v>
       </c>
       <c r="R27" t="n">
-        <v>5086.837831576426</v>
+        <v>1753.270793430986</v>
       </c>
       <c r="S27" t="n">
-        <v>5029.906113463821</v>
+        <v>1696.339075318381</v>
       </c>
       <c r="T27" t="n">
-        <v>4901.143124614837</v>
+        <v>1567.576086469397</v>
       </c>
       <c r="U27" t="n">
-        <v>4724.829684059099</v>
+        <v>1391.262645913659</v>
       </c>
       <c r="V27" t="n">
-        <v>4525.712166121099</v>
+        <v>1192.145127975658</v>
       </c>
       <c r="W27" t="n">
-        <v>4340.389411854292</v>
+        <v>1006.822373708852</v>
       </c>
       <c r="X27" t="n">
-        <v>4185.521976093172</v>
+        <v>851.9549379477321</v>
       </c>
       <c r="Y27" t="n">
-        <v>4059.036196872393</v>
+        <v>725.4691587269529</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1103.733631181614</v>
+        <v>1095.555322661513</v>
       </c>
       <c r="C28" t="n">
-        <v>931.1719196648393</v>
+        <v>922.9936111447383</v>
       </c>
       <c r="D28" t="n">
-        <v>765.293926866362</v>
+        <v>757.115618346261</v>
       </c>
       <c r="E28" t="n">
-        <v>595.5359231170992</v>
+        <v>587.3576145969982</v>
       </c>
       <c r="F28" t="n">
-        <v>418.8288690788554</v>
+        <v>410.6505605587545</v>
       </c>
       <c r="G28" t="n">
-        <v>253.5320434385282</v>
+        <v>245.3537349184273</v>
       </c>
       <c r="H28" t="n">
-        <v>116.2477913879985</v>
+        <v>108.0694828678976</v>
       </c>
       <c r="I28" t="n">
         <v>101.7367566315285</v>
@@ -6408,28 +6408,28 @@
         <v>3004.493792249607</v>
       </c>
       <c r="R28" t="n">
-        <v>3004.493792249607</v>
+        <v>2996.315483729506</v>
       </c>
       <c r="S28" t="n">
-        <v>2850.383872392887</v>
+        <v>2842.205563872786</v>
       </c>
       <c r="T28" t="n">
-        <v>2605.762527670498</v>
+        <v>2597.584219150398</v>
       </c>
       <c r="U28" t="n">
-        <v>2327.345587796359</v>
+        <v>2319.167279276258</v>
       </c>
       <c r="V28" t="n">
-        <v>2040.390079666789</v>
+        <v>2032.211771146688</v>
       </c>
       <c r="W28" t="n">
-        <v>1768.363675253081</v>
+        <v>1760.18536673298</v>
       </c>
       <c r="X28" t="n">
-        <v>1522.971920586493</v>
+        <v>1514.793612066392</v>
       </c>
       <c r="Y28" t="n">
-        <v>1295.552249900602</v>
+        <v>1287.373941380501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2520.580145200874</v>
+        <v>2520.580145200873</v>
       </c>
       <c r="C29" t="n">
         <v>2082.437672384297</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.527887558742</v>
+        <v>1646.527887558741</v>
       </c>
       <c r="E29" t="n">
-        <v>1212.753142717037</v>
+        <v>1212.753142717036</v>
       </c>
       <c r="F29" t="n">
-        <v>784.8857131262448</v>
+        <v>784.8857131262439</v>
       </c>
       <c r="G29" t="n">
         <v>384.1443060296197</v>
@@ -6460,55 +6460,55 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I29" t="n">
-        <v>126.1314531647157</v>
+        <v>126.1314531647156</v>
       </c>
       <c r="J29" t="n">
-        <v>615.9906383758951</v>
+        <v>180.7359509229771</v>
       </c>
       <c r="K29" t="n">
-        <v>1532.178917717893</v>
+        <v>1096.924230264975</v>
       </c>
       <c r="L29" t="n">
-        <v>1633.706177677384</v>
+        <v>2273.511456477325</v>
       </c>
       <c r="M29" t="n">
-        <v>2306.248221240556</v>
+        <v>2386.48009539095</v>
       </c>
       <c r="N29" t="n">
-        <v>2421.04481083688</v>
+        <v>2501.276684987274</v>
       </c>
       <c r="O29" t="n">
-        <v>3509.623641714964</v>
+        <v>3589.855515865358</v>
       </c>
       <c r="P29" t="n">
-        <v>4430.449695381748</v>
+        <v>4510.681569532142</v>
       </c>
       <c r="Q29" t="n">
-        <v>5046.42427871341</v>
+        <v>5046.424278713409</v>
       </c>
       <c r="R29" t="n">
-        <v>5086.837831576426</v>
+        <v>5086.837831576425</v>
       </c>
       <c r="S29" t="n">
-        <v>5018.144226043305</v>
+        <v>5018.144226043304</v>
       </c>
       <c r="T29" t="n">
-        <v>4800.950496202532</v>
+        <v>4800.950496202531</v>
       </c>
       <c r="U29" t="n">
-        <v>4541.780707461958</v>
+        <v>4541.780707461957</v>
       </c>
       <c r="V29" t="n">
-        <v>4179.163757395784</v>
+        <v>4179.163757395783</v>
       </c>
       <c r="W29" t="n">
-        <v>3774.308302806818</v>
+        <v>3774.308302806817</v>
       </c>
       <c r="X29" t="n">
         <v>3355.165839386128</v>
       </c>
       <c r="Y29" t="n">
-        <v>2946.879715685782</v>
+        <v>2946.879715685781</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.1652576471898</v>
+        <v>604.1652576471897</v>
       </c>
       <c r="C30" t="n">
-        <v>497.7087964838321</v>
+        <v>497.708796483832</v>
       </c>
       <c r="D30" t="n">
-        <v>402.6185076303854</v>
+        <v>402.6185076303853</v>
       </c>
       <c r="E30" t="n">
-        <v>308.4980929573391</v>
+        <v>308.498092957339</v>
       </c>
       <c r="F30" t="n">
-        <v>225.1142545735007</v>
+        <v>225.1142545735006</v>
       </c>
       <c r="G30" t="n">
-        <v>140.0803827929537</v>
+        <v>140.0803827929536</v>
       </c>
       <c r="H30" t="n">
         <v>101.7367566315285</v>
@@ -6542,28 +6542,28 @@
         <v>139.6521640928314</v>
       </c>
       <c r="J30" t="n">
-        <v>172.1742288793931</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K30" t="n">
-        <v>227.7596176378927</v>
+        <v>552.3179426041049</v>
       </c>
       <c r="L30" t="n">
-        <v>302.5010324867267</v>
+        <v>627.059357452939</v>
       </c>
       <c r="M30" t="n">
-        <v>389.7207382905272</v>
+        <v>714.2790632567394</v>
       </c>
       <c r="N30" t="n">
-        <v>479.2488901766197</v>
+        <v>803.8072151428319</v>
       </c>
       <c r="O30" t="n">
-        <v>1574.951268226508</v>
+        <v>885.7079833744185</v>
       </c>
       <c r="P30" t="n">
-        <v>1687.957923895372</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q30" t="n">
-        <v>1731.89841753764</v>
+        <v>1614.7256394433</v>
       </c>
       <c r="R30" t="n">
         <v>1753.270793430986</v>
@@ -6584,10 +6584,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X30" t="n">
-        <v>851.9549379477322</v>
+        <v>851.9549379477321</v>
       </c>
       <c r="Y30" t="n">
-        <v>725.469158726953</v>
+        <v>725.4691587269529</v>
       </c>
     </row>
     <row r="31">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2520.580145200874</v>
+        <v>2520.580145200873</v>
       </c>
       <c r="C32" t="n">
         <v>2082.437672384297</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.527887558742</v>
+        <v>1646.527887558741</v>
       </c>
       <c r="E32" t="n">
-        <v>1212.753142717037</v>
+        <v>1212.753142717036</v>
       </c>
       <c r="F32" t="n">
-        <v>784.8857131262448</v>
+        <v>784.8857131262439</v>
       </c>
       <c r="G32" t="n">
         <v>384.1443060296197</v>
@@ -6697,55 +6697,55 @@
         <v>101.7367566315285</v>
       </c>
       <c r="I32" t="n">
-        <v>126.1314531647157</v>
+        <v>126.1314531647156</v>
       </c>
       <c r="J32" t="n">
-        <v>180.7359509229772</v>
+        <v>615.9906383758949</v>
       </c>
       <c r="K32" t="n">
-        <v>262.5739383067967</v>
+        <v>1532.178917717892</v>
       </c>
       <c r="L32" t="n">
-        <v>364.1011982662877</v>
+        <v>2193.279582326928</v>
       </c>
       <c r="M32" t="n">
-        <v>1623.093561581453</v>
+        <v>2306.248221240554</v>
       </c>
       <c r="N32" t="n">
-        <v>2863.621134614224</v>
+        <v>2421.044810836878</v>
       </c>
       <c r="O32" t="n">
-        <v>3952.199965492308</v>
+        <v>3509.623641714962</v>
       </c>
       <c r="P32" t="n">
-        <v>4873.026019159091</v>
+        <v>4430.449695381746</v>
       </c>
       <c r="Q32" t="n">
-        <v>5046.42427871341</v>
+        <v>5046.424278713409</v>
       </c>
       <c r="R32" t="n">
-        <v>5086.837831576426</v>
+        <v>5086.837831576425</v>
       </c>
       <c r="S32" t="n">
-        <v>5018.144226043305</v>
+        <v>5018.144226043304</v>
       </c>
       <c r="T32" t="n">
-        <v>4800.950496202532</v>
+        <v>4800.950496202531</v>
       </c>
       <c r="U32" t="n">
-        <v>4541.780707461958</v>
+        <v>4541.780707461957</v>
       </c>
       <c r="V32" t="n">
-        <v>4179.163757395784</v>
+        <v>4179.163757395783</v>
       </c>
       <c r="W32" t="n">
-        <v>3774.308302806818</v>
+        <v>3774.308302806817</v>
       </c>
       <c r="X32" t="n">
         <v>3355.165839386128</v>
       </c>
       <c r="Y32" t="n">
-        <v>2946.879715685782</v>
+        <v>2946.879715685781</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.1652576471898</v>
+        <v>604.1652576471897</v>
       </c>
       <c r="C33" t="n">
-        <v>497.7087964838321</v>
+        <v>497.708796483832</v>
       </c>
       <c r="D33" t="n">
-        <v>402.6185076303854</v>
+        <v>402.6185076303853</v>
       </c>
       <c r="E33" t="n">
-        <v>308.4980929573391</v>
+        <v>308.498092957339</v>
       </c>
       <c r="F33" t="n">
-        <v>225.1142545735007</v>
+        <v>225.1142545735006</v>
       </c>
       <c r="G33" t="n">
-        <v>140.0803827929537</v>
+        <v>140.0803827929536</v>
       </c>
       <c r="H33" t="n">
         <v>101.7367566315285</v>
@@ -6782,19 +6782,19 @@
         <v>496.7325538456054</v>
       </c>
       <c r="K33" t="n">
-        <v>630.9235793935217</v>
+        <v>552.3179426041049</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6649942423558</v>
+        <v>627.059357452939</v>
       </c>
       <c r="M33" t="n">
-        <v>792.8847000461562</v>
+        <v>714.2790632567394</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4128519322487</v>
+        <v>803.8072151428319</v>
       </c>
       <c r="O33" t="n">
-        <v>964.3136201638355</v>
+        <v>885.7079833744185</v>
       </c>
       <c r="P33" t="n">
         <v>1030.046207168957</v>
@@ -6821,10 +6821,10 @@
         <v>1006.822373708852</v>
       </c>
       <c r="X33" t="n">
-        <v>851.9549379477322</v>
+        <v>851.9549379477321</v>
       </c>
       <c r="Y33" t="n">
-        <v>725.469158726953</v>
+        <v>725.4691587269529</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1103.733631181614</v>
+        <v>1095.555322661513</v>
       </c>
       <c r="C34" t="n">
-        <v>931.1719196648393</v>
+        <v>922.9936111447383</v>
       </c>
       <c r="D34" t="n">
-        <v>765.293926866362</v>
+        <v>757.115618346261</v>
       </c>
       <c r="E34" t="n">
-        <v>595.5359231170992</v>
+        <v>587.3576145969982</v>
       </c>
       <c r="F34" t="n">
-        <v>418.8288690788554</v>
+        <v>410.6505605587545</v>
       </c>
       <c r="G34" t="n">
-        <v>253.5320434385282</v>
+        <v>245.3537349184273</v>
       </c>
       <c r="H34" t="n">
-        <v>116.2477913879985</v>
+        <v>108.0694828678976</v>
       </c>
       <c r="I34" t="n">
         <v>101.7367566315285</v>
@@ -6882,28 +6882,28 @@
         <v>3004.493792249607</v>
       </c>
       <c r="R34" t="n">
-        <v>3004.493792249607</v>
+        <v>2996.315483729506</v>
       </c>
       <c r="S34" t="n">
-        <v>2850.383872392887</v>
+        <v>2842.205563872786</v>
       </c>
       <c r="T34" t="n">
-        <v>2605.762527670498</v>
+        <v>2597.584219150398</v>
       </c>
       <c r="U34" t="n">
-        <v>2327.345587796359</v>
+        <v>2319.167279276258</v>
       </c>
       <c r="V34" t="n">
-        <v>2040.390079666789</v>
+        <v>2032.211771146688</v>
       </c>
       <c r="W34" t="n">
-        <v>1768.363675253081</v>
+        <v>1760.18536673298</v>
       </c>
       <c r="X34" t="n">
-        <v>1522.971920586493</v>
+        <v>1514.793612066392</v>
       </c>
       <c r="Y34" t="n">
-        <v>1295.552249900602</v>
+        <v>1287.373941380501</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2520.580145200873</v>
+        <v>2520.580145200875</v>
       </c>
       <c r="C35" t="n">
-        <v>2082.437672384297</v>
+        <v>2082.437672384298</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.527887558741</v>
+        <v>1646.527887558743</v>
       </c>
       <c r="E35" t="n">
-        <v>1212.753142717036</v>
+        <v>1212.753142717038</v>
       </c>
       <c r="F35" t="n">
-        <v>784.8857131262441</v>
+        <v>784.8857131262457</v>
       </c>
       <c r="G35" t="n">
-        <v>384.1443060296197</v>
+        <v>384.1443060296212</v>
       </c>
       <c r="H35" t="n">
         <v>101.7367566315285</v>
@@ -6943,46 +6943,46 @@
         <v>262.5739383067966</v>
       </c>
       <c r="L35" t="n">
-        <v>1439.161164519147</v>
+        <v>364.1011982662876</v>
       </c>
       <c r="M35" t="n">
-        <v>1727.016023762703</v>
+        <v>1180.517237804109</v>
       </c>
       <c r="N35" t="n">
-        <v>2967.543596795474</v>
+        <v>2421.04481083688</v>
       </c>
       <c r="O35" t="n">
-        <v>4056.122427673558</v>
+        <v>3509.623641714964</v>
       </c>
       <c r="P35" t="n">
-        <v>4976.948481340341</v>
+        <v>4430.449695381748</v>
       </c>
       <c r="Q35" t="n">
-        <v>5046.42427871341</v>
+        <v>5046.424278713411</v>
       </c>
       <c r="R35" t="n">
-        <v>5086.837831576426</v>
+        <v>5086.837831576427</v>
       </c>
       <c r="S35" t="n">
-        <v>5018.144226043305</v>
+        <v>5018.144226043306</v>
       </c>
       <c r="T35" t="n">
-        <v>4800.950496202532</v>
+        <v>4800.950496202533</v>
       </c>
       <c r="U35" t="n">
-        <v>4541.780707461958</v>
+        <v>4541.780707461959</v>
       </c>
       <c r="V35" t="n">
-        <v>4179.163757395784</v>
+        <v>4179.163757395785</v>
       </c>
       <c r="W35" t="n">
-        <v>3774.308302806818</v>
+        <v>3774.308302806819</v>
       </c>
       <c r="X35" t="n">
-        <v>3355.165839386128</v>
+        <v>3355.165839386129</v>
       </c>
       <c r="Y35" t="n">
-        <v>2946.879715685781</v>
+        <v>2946.879715685783</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>139.6521640928314</v>
       </c>
       <c r="J36" t="n">
-        <v>413.5267408822397</v>
+        <v>496.7325538456054</v>
       </c>
       <c r="K36" t="n">
-        <v>469.1121296407393</v>
+        <v>552.3179426041049</v>
       </c>
       <c r="L36" t="n">
-        <v>543.8535444895732</v>
+        <v>627.059357452939</v>
       </c>
       <c r="M36" t="n">
-        <v>631.0732502933737</v>
+        <v>714.2790632567394</v>
       </c>
       <c r="N36" t="n">
-        <v>720.6014021794662</v>
+        <v>803.8072151428319</v>
       </c>
       <c r="O36" t="n">
-        <v>802.5021704110528</v>
+        <v>885.7079833744185</v>
       </c>
       <c r="P36" t="n">
-        <v>1687.957923895372</v>
+        <v>1030.046207168957</v>
       </c>
       <c r="Q36" t="n">
-        <v>1731.89841753764</v>
+        <v>1614.7256394433</v>
       </c>
       <c r="R36" t="n">
         <v>1753.270793430986</v>
@@ -7080,13 +7080,13 @@
         <v>830.5879468228559</v>
       </c>
       <c r="E37" t="n">
-        <v>660.8299430735931</v>
+        <v>660.8299430735932</v>
       </c>
       <c r="F37" t="n">
-        <v>484.1228890353493</v>
+        <v>484.1228890353494</v>
       </c>
       <c r="G37" t="n">
-        <v>318.8260633950221</v>
+        <v>318.8260633950222</v>
       </c>
       <c r="H37" t="n">
         <v>181.5418113444924</v>
@@ -7095,7 +7095,7 @@
         <v>101.7367566315285</v>
       </c>
       <c r="J37" t="n">
-        <v>208.7197400978022</v>
+        <v>208.7197400978023</v>
       </c>
       <c r="K37" t="n">
         <v>517.0070814240158</v>
@@ -7122,7 +7122,7 @@
         <v>3004.493792249607</v>
       </c>
       <c r="S37" t="n">
-        <v>2915.67789234938</v>
+        <v>2850.383872392887</v>
       </c>
       <c r="T37" t="n">
         <v>2671.056547626992</v>
@@ -7174,28 +7174,28 @@
         <v>126.1314531647156</v>
       </c>
       <c r="J38" t="n">
-        <v>615.9906383758949</v>
+        <v>180.7359509229771</v>
       </c>
       <c r="K38" t="n">
-        <v>1530.296849328778</v>
+        <v>1096.924230264975</v>
       </c>
       <c r="L38" t="n">
-        <v>2706.884075541128</v>
+        <v>1198.451490224465</v>
       </c>
       <c r="M38" t="n">
-        <v>2819.852714454753</v>
+        <v>1311.420129138091</v>
       </c>
       <c r="N38" t="n">
-        <v>4060.380287487524</v>
+        <v>2551.947702170862</v>
       </c>
       <c r="O38" t="n">
-        <v>4168.779451795303</v>
+        <v>3640.526533048946</v>
       </c>
       <c r="P38" t="n">
-        <v>4261.29563062869</v>
+        <v>4561.352586715729</v>
       </c>
       <c r="Q38" t="n">
-        <v>4877.270213960353</v>
+        <v>5046.424278713409</v>
       </c>
       <c r="R38" t="n">
         <v>5086.837831576425</v>
@@ -7256,19 +7256,19 @@
         <v>496.7325538456054</v>
       </c>
       <c r="K39" t="n">
-        <v>630.9235793935219</v>
+        <v>552.3179426041049</v>
       </c>
       <c r="L39" t="n">
-        <v>705.664994242356</v>
+        <v>627.059357452939</v>
       </c>
       <c r="M39" t="n">
-        <v>792.8847000461564</v>
+        <v>714.2790632567394</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4128519322488</v>
+        <v>803.8072151428319</v>
       </c>
       <c r="O39" t="n">
-        <v>964.3136201638355</v>
+        <v>885.7079833744185</v>
       </c>
       <c r="P39" t="n">
         <v>1030.046207168957</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3186.077670508432</v>
+        <v>1095.555322661513</v>
       </c>
       <c r="C40" t="n">
-        <v>3013.515958991657</v>
+        <v>922.9936111447383</v>
       </c>
       <c r="D40" t="n">
-        <v>2847.63796619318</v>
+        <v>757.115618346261</v>
       </c>
       <c r="E40" t="n">
-        <v>2677.879962443917</v>
+        <v>587.3576145969982</v>
       </c>
       <c r="F40" t="n">
-        <v>2501.172908405673</v>
+        <v>410.6505605587545</v>
       </c>
       <c r="G40" t="n">
-        <v>2335.876082765346</v>
+        <v>245.3537349184273</v>
       </c>
       <c r="H40" t="n">
-        <v>2198.591830714816</v>
+        <v>108.0694828678976</v>
       </c>
       <c r="I40" t="n">
-        <v>2184.080795958348</v>
+        <v>101.7367566315285</v>
       </c>
       <c r="J40" t="n">
-        <v>2291.063779424622</v>
+        <v>208.7197400978022</v>
       </c>
       <c r="K40" t="n">
-        <v>2599.351120750835</v>
+        <v>517.0070814240158</v>
       </c>
       <c r="L40" t="n">
-        <v>3060.466433973612</v>
+        <v>978.1223946467927</v>
       </c>
       <c r="M40" t="n">
-        <v>3565.188062838235</v>
+        <v>1482.844023511416</v>
       </c>
       <c r="N40" t="n">
-        <v>4051.60897481812</v>
+        <v>1969.2649354913</v>
       </c>
       <c r="O40" t="n">
-        <v>4512.069079385682</v>
+        <v>2429.725040058862</v>
       </c>
       <c r="P40" t="n">
-        <v>4894.479596938931</v>
+        <v>2812.135557612112</v>
       </c>
       <c r="Q40" t="n">
-        <v>5086.837831576425</v>
+        <v>3004.493792249607</v>
       </c>
       <c r="R40" t="n">
-        <v>5086.837831576425</v>
+        <v>2996.315483729506</v>
       </c>
       <c r="S40" t="n">
-        <v>4932.727911719704</v>
+        <v>2842.205563872786</v>
       </c>
       <c r="T40" t="n">
-        <v>4688.106566997316</v>
+        <v>2597.584219150398</v>
       </c>
       <c r="U40" t="n">
-        <v>4409.689627123176</v>
+        <v>2319.167279276258</v>
       </c>
       <c r="V40" t="n">
-        <v>4122.734118993607</v>
+        <v>2032.211771146688</v>
       </c>
       <c r="W40" t="n">
-        <v>3850.707714579898</v>
+        <v>1760.18536673298</v>
       </c>
       <c r="X40" t="n">
-        <v>3605.315959913311</v>
+        <v>1514.793612066392</v>
       </c>
       <c r="Y40" t="n">
-        <v>3377.896289227419</v>
+        <v>1287.373941380501</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1794.934371577039</v>
+        <v>2077.341920975131</v>
       </c>
       <c r="C41" t="n">
-        <v>1356.791898760462</v>
+        <v>1639.199448158554</v>
       </c>
       <c r="D41" t="n">
-        <v>920.8821139349068</v>
+        <v>1203.289663332998</v>
       </c>
       <c r="E41" t="n">
-        <v>487.107369093202</v>
+        <v>769.5149184912932</v>
       </c>
       <c r="F41" t="n">
-        <v>59.23993950240975</v>
+        <v>341.6474889005009</v>
       </c>
       <c r="G41" t="n">
-        <v>59.23993950240975</v>
+        <v>341.6474889005009</v>
       </c>
       <c r="H41" t="n">
-        <v>59.23993950240975</v>
+        <v>59.23993950240976</v>
       </c>
       <c r="I41" t="n">
-        <v>83.63463603559688</v>
+        <v>83.6346360355969</v>
       </c>
       <c r="J41" t="n">
         <v>573.4938212467763</v>
       </c>
       <c r="K41" t="n">
-        <v>1306.588072589097</v>
+        <v>981.5518555276043</v>
       </c>
       <c r="L41" t="n">
-        <v>1408.115332548588</v>
+        <v>1083.079115487095</v>
       </c>
       <c r="M41" t="n">
-        <v>1521.083971462213</v>
+        <v>1196.047754400721</v>
       </c>
       <c r="N41" t="n">
-        <v>1635.880561058537</v>
+        <v>1310.844343997044</v>
       </c>
       <c r="O41" t="n">
-        <v>1949.859308789026</v>
+        <v>2043.938595339365</v>
       </c>
       <c r="P41" t="n">
-        <v>2682.953560131346</v>
+        <v>2136.454774172752</v>
       </c>
       <c r="Q41" t="n">
         <v>2752.429357504415</v>
@@ -7438,25 +7438,25 @@
         <v>2961.996975120488</v>
       </c>
       <c r="S41" t="n">
-        <v>2961.996975120488</v>
+        <v>2893.303369587367</v>
       </c>
       <c r="T41" t="n">
-        <v>2961.996975120488</v>
+        <v>2676.109639746594</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.996975120488</v>
+        <v>2416.93985100602</v>
       </c>
       <c r="V41" t="n">
-        <v>2961.996975120488</v>
+        <v>2416.93985100602</v>
       </c>
       <c r="W41" t="n">
-        <v>2961.996975120488</v>
+        <v>2416.93985100602</v>
       </c>
       <c r="X41" t="n">
-        <v>2629.520065762294</v>
+        <v>2416.93985100602</v>
       </c>
       <c r="Y41" t="n">
-        <v>2221.233942061947</v>
+        <v>2077.341920975131</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>182.6174374443819</v>
       </c>
       <c r="G42" t="n">
-        <v>97.58356566383489</v>
+        <v>97.5835656638349</v>
       </c>
       <c r="H42" t="n">
-        <v>59.23993950240975</v>
+        <v>59.23993950240976</v>
       </c>
       <c r="I42" t="n">
         <v>97.15534696371266</v>
@@ -7508,10 +7508,10 @@
         <v>843.2111662452998</v>
       </c>
       <c r="P42" t="n">
-        <v>1576.30541758762</v>
+        <v>987.5493900398382</v>
       </c>
       <c r="Q42" t="n">
-        <v>1689.401600408521</v>
+        <v>1572.228822314182</v>
       </c>
       <c r="R42" t="n">
         <v>1710.773976301867</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1126.530834008989</v>
+        <v>1053.058505532395</v>
       </c>
       <c r="C43" t="n">
-        <v>953.9691224922143</v>
+        <v>880.4967940156195</v>
       </c>
       <c r="D43" t="n">
-        <v>788.091129693737</v>
+        <v>714.6188012171422</v>
       </c>
       <c r="E43" t="n">
-        <v>618.3331259444743</v>
+        <v>544.8607974678794</v>
       </c>
       <c r="F43" t="n">
-        <v>441.6260719062305</v>
+        <v>368.1537434296356</v>
       </c>
       <c r="G43" t="n">
         <v>276.3292462659034</v>
@@ -7566,10 +7566,10 @@
         <v>139.0449942153736</v>
       </c>
       <c r="I43" t="n">
-        <v>59.23993950240975</v>
+        <v>59.23993950240976</v>
       </c>
       <c r="J43" t="n">
-        <v>166.2229229686835</v>
+        <v>166.2229229686834</v>
       </c>
       <c r="K43" t="n">
         <v>474.5102642948971</v>
@@ -7581,7 +7581,7 @@
         <v>1440.347206382297</v>
       </c>
       <c r="N43" t="n">
-        <v>1926.768118362182</v>
+        <v>1926.768118362181</v>
       </c>
       <c r="O43" t="n">
         <v>2387.228222929743</v>
@@ -7596,25 +7596,25 @@
         <v>2953.818666600387</v>
       </c>
       <c r="S43" t="n">
-        <v>2873.181075220261</v>
+        <v>2799.708746743667</v>
       </c>
       <c r="T43" t="n">
-        <v>2628.559730497873</v>
+        <v>2555.087402021279</v>
       </c>
       <c r="U43" t="n">
-        <v>2350.142790623734</v>
+        <v>2276.670462147139</v>
       </c>
       <c r="V43" t="n">
-        <v>2063.187282494164</v>
+        <v>1989.714954017569</v>
       </c>
       <c r="W43" t="n">
-        <v>1791.160878080456</v>
+        <v>1717.688549603861</v>
       </c>
       <c r="X43" t="n">
-        <v>1545.769123413868</v>
+        <v>1472.296794937273</v>
       </c>
       <c r="Y43" t="n">
-        <v>1318.349452727977</v>
+        <v>1244.877124251382</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1844.954614672719</v>
+        <v>1696.100725335939</v>
       </c>
       <c r="C44" t="n">
-        <v>1844.954614672719</v>
+        <v>1696.100725335939</v>
       </c>
       <c r="D44" t="n">
-        <v>1604.031070429623</v>
+        <v>1260.190940510383</v>
       </c>
       <c r="E44" t="n">
-        <v>1170.256325587918</v>
+        <v>826.4161956686785</v>
       </c>
       <c r="F44" t="n">
-        <v>742.3888959971255</v>
+        <v>398.5487660778862</v>
       </c>
       <c r="G44" t="n">
         <v>341.6474889005009</v>
@@ -7651,19 +7651,19 @@
         <v>573.4938212467763</v>
       </c>
       <c r="K44" t="n">
-        <v>965.6688700532127</v>
+        <v>981.5518555276038</v>
       </c>
       <c r="L44" t="n">
-        <v>1067.196130012704</v>
+        <v>1083.079115487095</v>
       </c>
       <c r="M44" t="n">
-        <v>1180.164768926329</v>
+        <v>1196.04775440072</v>
       </c>
       <c r="N44" t="n">
-        <v>1294.961358522653</v>
+        <v>1310.844343997044</v>
       </c>
       <c r="O44" t="n">
-        <v>1403.360522830431</v>
+        <v>2043.938595339365</v>
       </c>
       <c r="P44" t="n">
         <v>2136.454774172752</v>
@@ -7678,22 +7678,22 @@
         <v>2893.303369587367</v>
       </c>
       <c r="T44" t="n">
-        <v>2676.109639746594</v>
+        <v>2893.303369587367</v>
       </c>
       <c r="U44" t="n">
-        <v>2676.109639746594</v>
+        <v>2893.303369587367</v>
       </c>
       <c r="V44" t="n">
-        <v>2676.109639746594</v>
+        <v>2530.686419521193</v>
       </c>
       <c r="W44" t="n">
-        <v>2271.254185157627</v>
+        <v>2530.686419521193</v>
       </c>
       <c r="X44" t="n">
-        <v>2271.254185157627</v>
+        <v>2530.686419521193</v>
       </c>
       <c r="Y44" t="n">
-        <v>2271.254185157627</v>
+        <v>2122.400295820847</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>59.23993950240975</v>
       </c>
       <c r="I45" t="n">
-        <v>71.09167380325506</v>
+        <v>97.15534696371266</v>
       </c>
       <c r="J45" t="n">
-        <v>103.6137385898167</v>
+        <v>454.2357367164866</v>
       </c>
       <c r="K45" t="n">
-        <v>705.5995403587431</v>
+        <v>509.8211254749861</v>
       </c>
       <c r="L45" t="n">
-        <v>780.3409552075771</v>
+        <v>584.5625403238201</v>
       </c>
       <c r="M45" t="n">
-        <v>867.5606610113775</v>
+        <v>671.7822461276206</v>
       </c>
       <c r="N45" t="n">
-        <v>957.08881289747</v>
+        <v>761.3103980137131</v>
       </c>
       <c r="O45" t="n">
-        <v>1038.989581129057</v>
+        <v>843.2111662452998</v>
       </c>
       <c r="P45" t="n">
-        <v>1104.722168134178</v>
+        <v>987.5493900398382</v>
       </c>
       <c r="Q45" t="n">
-        <v>1689.401600408521</v>
+        <v>1572.228822314182</v>
       </c>
       <c r="R45" t="n">
         <v>1710.773976301867</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1053.058505532394</v>
+        <v>1061.236814052495</v>
       </c>
       <c r="C46" t="n">
-        <v>880.496794015619</v>
+        <v>888.6751025357199</v>
       </c>
       <c r="D46" t="n">
-        <v>714.6188012171417</v>
+        <v>722.7971097372426</v>
       </c>
       <c r="E46" t="n">
-        <v>544.8607974678789</v>
+        <v>553.0391059879798</v>
       </c>
       <c r="F46" t="n">
-        <v>368.1537434296351</v>
+        <v>376.3320519497361</v>
       </c>
       <c r="G46" t="n">
-        <v>202.8569177893079</v>
+        <v>211.0352263094089</v>
       </c>
       <c r="H46" t="n">
-        <v>65.57266573877823</v>
+        <v>73.75097425887915</v>
       </c>
       <c r="I46" t="n">
         <v>59.23993950240975</v>
@@ -7809,49 +7809,49 @@
         <v>166.2229229686835</v>
       </c>
       <c r="K46" t="n">
-        <v>474.5102642948971</v>
+        <v>474.5102642948966</v>
       </c>
       <c r="L46" t="n">
-        <v>935.6255775176741</v>
+        <v>935.6255775176736</v>
       </c>
       <c r="M46" t="n">
-        <v>1440.347206382297</v>
+        <v>1440.347206382296</v>
       </c>
       <c r="N46" t="n">
-        <v>1926.768118362182</v>
+        <v>1926.768118362181</v>
       </c>
       <c r="O46" t="n">
-        <v>2387.228222929744</v>
+        <v>2387.228222929743</v>
       </c>
       <c r="P46" t="n">
-        <v>2769.638740482993</v>
+        <v>2769.638740482992</v>
       </c>
       <c r="Q46" t="n">
         <v>2961.996975120488</v>
       </c>
       <c r="R46" t="n">
-        <v>2953.818666600387</v>
+        <v>2961.996975120488</v>
       </c>
       <c r="S46" t="n">
-        <v>2799.708746743666</v>
+        <v>2807.887055263767</v>
       </c>
       <c r="T46" t="n">
-        <v>2555.087402021278</v>
+        <v>2563.265710541379</v>
       </c>
       <c r="U46" t="n">
-        <v>2276.670462147139</v>
+        <v>2284.848770667239</v>
       </c>
       <c r="V46" t="n">
-        <v>1989.714954017569</v>
+        <v>1997.89326253767</v>
       </c>
       <c r="W46" t="n">
-        <v>1717.688549603861</v>
+        <v>1725.866858123961</v>
       </c>
       <c r="X46" t="n">
-        <v>1472.296794937273</v>
+        <v>1480.475103457374</v>
       </c>
       <c r="Y46" t="n">
-        <v>1244.877124251381</v>
+        <v>1253.055432771482</v>
       </c>
     </row>
   </sheetData>
@@ -8054,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,10 +8218,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>111.3317882741669</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>657.8346100590923</v>
+        <v>234.4856165117868</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>631.00513841873</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>647.0485580898321</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>484.3344708845201</v>
+        <v>657.8346100590923</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>631.0051384187304</v>
       </c>
       <c r="P14" t="n">
-        <v>647.0485580898321</v>
+        <v>394.5622562122821</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>79.39963312062332</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>394.3629695924144</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>470.976678594141</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>410.5109409819445</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>941.6488252673197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1157.599721617717</v>
@@ -9415,7 +9415,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.032066034257696</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>79.39963312062218</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1135.200924290236</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>470.9766785941401</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>79.39963312062321</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9880,22 +9880,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>710.5529299234282</v>
       </c>
       <c r="M26" t="n">
-        <v>1157.599721617717</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>845.8101387192851</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>79.39963312062218</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>565.2256612621682</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>470.9766785941401</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>47.75158450883123</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>565.2256612621668</v>
       </c>
       <c r="M32" t="n">
-        <v>1157.599721617717</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,7 +10369,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.9721840214643</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>79.39963312062287</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10591,10 +10591,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>176.6527478080109</v>
+        <v>710.5529299234299</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10606,7 +10606,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>243.7904161644915</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>79.39963312062321</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>840.8769935041046</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>419.793832954153</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>79.39963312062321</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>657.8346100590921</v>
+        <v>329.5151988858671</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>207.6561448714249</v>
+        <v>631.00513841873</v>
       </c>
       <c r="P41" t="n">
-        <v>647.0485580898321</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>674.1026912496962</v>
+        <v>79.39963312062332</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.85423149356893</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>313.4717792147646</v>
+        <v>329.5151988858667</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>631.00513841873</v>
       </c>
       <c r="P44" t="n">
-        <v>647.0485580898321</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>551.9196091014412</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>79.39963312062332</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>176.5141143459083</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.5834739041102</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.883197686025682</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>215.0217925423652</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5780908531684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>72.73760519182899</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.73760519182945</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.7339930256583</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>279.5834739041102</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.00666947778936</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>215.0217925423652</v>
+        <v>194.3474266626228</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5780908531684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23560,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>85.79889852186943</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>64.64107975692869</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.73760519182856</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>64.64107975692896</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.096525434899778</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S19" t="n">
-        <v>64.64107975693025</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.096525434899778</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S22" t="n">
         <v>64.6410797569289</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.64107975692896</v>
+        <v>64.64107975692893</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>8.096525434899778</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>64.64107975692896</v>
+        <v>72.73760519182885</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>8.096525434899771</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>64.64107975692896</v>
+        <v>64.64107975692893</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>8.096525434899771</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>64.64107975692896</v>
+        <v>72.73760519182885</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>8.096525434899771</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.096525434899778</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S37" t="n">
-        <v>64.6410797569289</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>64.64107975692889</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>64.64107975693068</v>
+        <v>72.73760519182885</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>8.096525434899778</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>396.7339930256583</v>
       </c>
       <c r="H41" t="n">
-        <v>279.5834739041102</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.00666947778936</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>215.0217925423652</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5780908531684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>85.79889852187034</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>68.00131173276247</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.73760519182899</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.73760519182882</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>193.0363781766341</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>340.4017286200468</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.0217925423652</v>
       </c>
       <c r="U44" t="n">
         <v>256.5780908531684</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.73760519182945</v>
+        <v>64.64107975692953</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.096525434899775</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>451592.4483584469</v>
+        <v>451592.4483584468</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>451592.4483584469</v>
+        <v>451592.448358447</v>
       </c>
     </row>
     <row r="7">
@@ -26322,19 +26322,19 @@
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
+        <v>259213.2043834858</v>
+      </c>
+      <c r="F2" t="n">
         <v>259213.2043834859</v>
-      </c>
-      <c r="F2" t="n">
-        <v>259213.2043834858</v>
       </c>
       <c r="G2" t="n">
         <v>374081.1321560633</v>
       </c>
       <c r="H2" t="n">
-        <v>374081.1321560632</v>
+        <v>374081.1321560633</v>
       </c>
       <c r="I2" t="n">
-        <v>374081.1321560632</v>
+        <v>374081.1321560633</v>
       </c>
       <c r="J2" t="n">
         <v>374081.1321560633</v>
@@ -26346,7 +26346,7 @@
         <v>374081.1321560632</v>
       </c>
       <c r="M2" t="n">
-        <v>374081.1321560632</v>
+        <v>374081.1321560634</v>
       </c>
       <c r="N2" t="n">
         <v>374081.1321560632</v>
@@ -26377,7 +26377,7 @@
         <v>224283.6261721323</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.00520188683146e-10</v>
       </c>
       <c r="G3" t="n">
         <v>145596.7515354314</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>78799.14866954145</v>
+        <v>78799.14866954149</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>224357.4126279203</v>
       </c>
       <c r="D4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="E4" t="n">
-        <v>63334.38522571879</v>
+        <v>63334.38522571878</v>
       </c>
       <c r="F4" t="n">
-        <v>63334.3852257188</v>
+        <v>63334.38522571881</v>
       </c>
       <c r="G4" t="n">
         <v>101257.0252485864</v>
@@ -26456,7 +26456,7 @@
         <v>101257.0252485864</v>
       </c>
       <c r="O4" t="n">
-        <v>63334.38522571879</v>
+        <v>63334.38522571878</v>
       </c>
       <c r="P4" t="n">
         <v>63334.38522571878</v>
@@ -26478,37 +26478,37 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>48546.38253915669</v>
+        <v>48546.38253915668</v>
       </c>
       <c r="F5" t="n">
-        <v>48546.38253915669</v>
+        <v>48546.3825391567</v>
       </c>
       <c r="G5" t="n">
         <v>80843.96355728694</v>
       </c>
       <c r="H5" t="n">
-        <v>80843.96355728694</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="I5" t="n">
-        <v>80843.96355728694</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="J5" t="n">
-        <v>80843.96355728694</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="K5" t="n">
-        <v>80843.96355728694</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="L5" t="n">
-        <v>80843.96355728694</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="M5" t="n">
-        <v>80843.96355728694</v>
+        <v>80843.96355728696</v>
       </c>
       <c r="N5" t="n">
-        <v>80843.96355728692</v>
+        <v>80843.96355728693</v>
       </c>
       <c r="O5" t="n">
-        <v>48546.38253915668</v>
+        <v>48546.38253915669</v>
       </c>
       <c r="P5" t="n">
         <v>48546.38253915668</v>
@@ -26527,43 +26527,43 @@
         <v>91520.92315814341</v>
       </c>
       <c r="D6" t="n">
-        <v>91520.92315814347</v>
+        <v>91520.92315814341</v>
       </c>
       <c r="E6" t="n">
-        <v>-76951.18955352194</v>
+        <v>-77365.7964090212</v>
       </c>
       <c r="F6" t="n">
-        <v>147332.4366186103</v>
+        <v>146917.829763111</v>
       </c>
       <c r="G6" t="n">
-        <v>46383.39181475851</v>
+        <v>46379.02755844709</v>
       </c>
       <c r="H6" t="n">
-        <v>191980.1433501899</v>
+        <v>191975.7790938785</v>
       </c>
       <c r="I6" t="n">
-        <v>191980.1433501898</v>
+        <v>191975.7790938785</v>
       </c>
       <c r="J6" t="n">
-        <v>80965.67800519976</v>
+        <v>80961.31374888829</v>
       </c>
       <c r="K6" t="n">
-        <v>191980.1433501898</v>
+        <v>191975.7790938783</v>
       </c>
       <c r="L6" t="n">
-        <v>191980.1433501898</v>
+        <v>191975.7790938783</v>
       </c>
       <c r="M6" t="n">
-        <v>113180.9946806484</v>
+        <v>113176.630424337</v>
       </c>
       <c r="N6" t="n">
-        <v>191980.1433501899</v>
+        <v>191975.7790938783</v>
       </c>
       <c r="O6" t="n">
-        <v>147332.4366186103</v>
+        <v>146917.829763111</v>
       </c>
       <c r="P6" t="n">
-        <v>147332.4366186103</v>
+        <v>146917.829763111</v>
       </c>
     </row>
   </sheetData>
@@ -26761,13 +26761,13 @@
         <v>161.6526842809757</v>
       </c>
       <c r="J3" t="n">
-        <v>161.6526842809758</v>
+        <v>161.6526842809757</v>
       </c>
       <c r="K3" t="n">
-        <v>161.6526842809758</v>
+        <v>161.6526842809757</v>
       </c>
       <c r="L3" t="n">
-        <v>161.6526842809758</v>
+        <v>161.6526842809757</v>
       </c>
       <c r="M3" t="n">
         <v>161.6526842809757</v>
@@ -26798,10 +26798,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>740.499243780122</v>
+        <v>740.4992437801219</v>
       </c>
       <c r="F4" t="n">
-        <v>740.4992437801221</v>
+        <v>740.4992437801222</v>
       </c>
       <c r="G4" t="n">
         <v>1271.709457894106</v>
@@ -26822,13 +26822,13 @@
         <v>1271.709457894106</v>
       </c>
       <c r="M4" t="n">
-        <v>1271.709457894106</v>
+        <v>1271.709457894107</v>
       </c>
       <c r="N4" t="n">
         <v>1271.709457894106</v>
       </c>
       <c r="O4" t="n">
-        <v>740.4992437801219</v>
+        <v>740.499243780122</v>
       </c>
       <c r="P4" t="n">
         <v>740.4992437801219</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>316.2033862600177</v>
+        <v>316.2033862600176</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.508239694936793e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>531.2102141139843</v>
+        <v>531.2102141139842</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>316.2033862600177</v>
+        <v>316.2033862600179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>316.2033862600177</v>
+        <v>316.2033862600176</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.508239694936793e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>531.2102141139843</v>
+        <v>531.2102141139842</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.0070762976464</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>75.93990007397628</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27441,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>121.8308226546936</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>97.56799855055026</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.71868052833509</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>188.6371559537997</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>66.69364622360229</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>152.8534602308088</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>46.33112671891371</v>
       </c>
       <c r="C8" t="n">
-        <v>111.1117530257919</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27918,7 +27918,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.0430917537383</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>150.0830022581259</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H11" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I11" t="n">
         <v>25.05372908841133</v>
@@ -31764,28 +31764,28 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K11" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L11" t="n">
         <v>102.5527878378697</v>
       </c>
       <c r="M11" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763895</v>
       </c>
       <c r="N11" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O11" t="n">
-        <v>109.4941053613919</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P11" t="n">
-        <v>93.45068569029009</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R11" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S11" t="n">
         <v>14.808685600212</v>
@@ -31794,7 +31794,7 @@
         <v>2.844762313326517</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>0.3477057737364384</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I12" t="n">
         <v>11.97144878873264</v>
@@ -31843,31 +31843,31 @@
         <v>32.8505704914764</v>
       </c>
       <c r="K12" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L12" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M12" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N12" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O12" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P12" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q12" t="n">
         <v>44.38433701239168</v>
       </c>
       <c r="R12" t="n">
-        <v>21.58825847812729</v>
+        <v>21.5882584781273</v>
       </c>
       <c r="S12" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T12" t="n">
         <v>1.401498272209591</v>
@@ -31913,31 +31913,31 @@
         <v>0.2915048405066775</v>
       </c>
       <c r="H13" t="n">
-        <v>2.591743036504825</v>
+        <v>2.591743036504826</v>
       </c>
       <c r="I13" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J13" t="n">
-        <v>20.60939222382209</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K13" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L13" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M13" t="n">
-        <v>45.69470877142399</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N13" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O13" t="n">
         <v>41.20288418361658</v>
       </c>
       <c r="P13" t="n">
-        <v>35.25618543728032</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q13" t="n">
         <v>24.40955532642733</v>
@@ -31946,10 +31946,10 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S13" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T13" t="n">
-        <v>1.245520682164894</v>
+        <v>1.245520682164895</v>
       </c>
       <c r="U13" t="n">
         <v>0.01590026402763697</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H14" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I14" t="n">
         <v>25.05372908841133</v>
@@ -32001,28 +32001,28 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K14" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L14" t="n">
         <v>102.5527878378697</v>
       </c>
       <c r="M14" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763895</v>
       </c>
       <c r="N14" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O14" t="n">
-        <v>109.4941053613919</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P14" t="n">
-        <v>93.45068569029009</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R14" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S14" t="n">
         <v>14.808685600212</v>
@@ -32031,7 +32031,7 @@
         <v>2.844762313326517</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>0.3477057737364384</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I15" t="n">
         <v>11.97144878873264</v>
@@ -32080,31 +32080,31 @@
         <v>32.8505704914764</v>
       </c>
       <c r="K15" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L15" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M15" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N15" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O15" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P15" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q15" t="n">
         <v>44.38433701239168</v>
       </c>
       <c r="R15" t="n">
-        <v>21.58825847812729</v>
+        <v>21.5882584781273</v>
       </c>
       <c r="S15" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T15" t="n">
         <v>1.401498272209591</v>
@@ -32150,31 +32150,31 @@
         <v>0.2915048405066775</v>
       </c>
       <c r="H16" t="n">
-        <v>2.591743036504825</v>
+        <v>2.591743036504826</v>
       </c>
       <c r="I16" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J16" t="n">
-        <v>20.60939222382209</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K16" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L16" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M16" t="n">
-        <v>45.69470877142399</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N16" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O16" t="n">
         <v>41.20288418361658</v>
       </c>
       <c r="P16" t="n">
-        <v>35.25618543728032</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q16" t="n">
         <v>24.40955532642733</v>
@@ -32183,10 +32183,10 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S16" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T16" t="n">
-        <v>1.245520682164894</v>
+        <v>1.245520682164895</v>
       </c>
       <c r="U16" t="n">
         <v>0.01590026402763697</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H17" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I17" t="n">
         <v>25.05372908841133</v>
@@ -32238,28 +32238,28 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K17" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L17" t="n">
         <v>102.5527878378697</v>
       </c>
       <c r="M17" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763895</v>
       </c>
       <c r="N17" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O17" t="n">
-        <v>109.4941053613919</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P17" t="n">
-        <v>93.45068569029009</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R17" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S17" t="n">
         <v>14.808685600212</v>
@@ -32268,7 +32268,7 @@
         <v>2.844762313326517</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,7 +32308,7 @@
         <v>0.3477057737364384</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I18" t="n">
         <v>11.97144878873264</v>
@@ -32317,31 +32317,31 @@
         <v>32.8505704914764</v>
       </c>
       <c r="K18" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L18" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M18" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N18" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O18" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P18" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q18" t="n">
         <v>44.38433701239168</v>
       </c>
       <c r="R18" t="n">
-        <v>21.58825847812729</v>
+        <v>21.5882584781273</v>
       </c>
       <c r="S18" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T18" t="n">
         <v>1.401498272209591</v>
@@ -32387,31 +32387,31 @@
         <v>0.2915048405066775</v>
       </c>
       <c r="H19" t="n">
-        <v>2.591743036504825</v>
+        <v>2.591743036504826</v>
       </c>
       <c r="I19" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J19" t="n">
-        <v>20.60939222382209</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K19" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L19" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M19" t="n">
-        <v>45.69470877142399</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N19" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O19" t="n">
         <v>41.20288418361658</v>
       </c>
       <c r="P19" t="n">
-        <v>35.25618543728032</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q19" t="n">
         <v>24.40955532642733</v>
@@ -32420,10 +32420,10 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S19" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T19" t="n">
-        <v>1.245520682164894</v>
+        <v>1.245520682164895</v>
       </c>
       <c r="U19" t="n">
         <v>0.01590026402763697</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H20" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I20" t="n">
         <v>25.05372908841133</v>
@@ -32475,28 +32475,28 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K20" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L20" t="n">
         <v>102.5527878378697</v>
       </c>
       <c r="M20" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763895</v>
       </c>
       <c r="N20" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O20" t="n">
-        <v>109.4941053613919</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P20" t="n">
-        <v>93.45068569029009</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R20" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S20" t="n">
         <v>14.808685600212</v>
@@ -32505,7 +32505,7 @@
         <v>2.844762313326517</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,7 +32545,7 @@
         <v>0.3477057737364384</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I21" t="n">
         <v>11.97144878873264</v>
@@ -32554,31 +32554,31 @@
         <v>32.8505704914764</v>
       </c>
       <c r="K21" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L21" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M21" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N21" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O21" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P21" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q21" t="n">
         <v>44.38433701239168</v>
       </c>
       <c r="R21" t="n">
-        <v>21.58825847812729</v>
+        <v>21.5882584781273</v>
       </c>
       <c r="S21" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T21" t="n">
         <v>1.401498272209591</v>
@@ -32624,31 +32624,31 @@
         <v>0.2915048405066775</v>
       </c>
       <c r="H22" t="n">
-        <v>2.591743036504825</v>
+        <v>2.591743036504826</v>
       </c>
       <c r="I22" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J22" t="n">
-        <v>20.60939222382209</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K22" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L22" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M22" t="n">
-        <v>45.69470877142399</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N22" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O22" t="n">
         <v>41.20288418361658</v>
       </c>
       <c r="P22" t="n">
-        <v>35.25618543728032</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q22" t="n">
         <v>24.40955532642733</v>
@@ -32657,10 +32657,10 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S22" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T22" t="n">
-        <v>1.245520682164894</v>
+        <v>1.245520682164895</v>
       </c>
       <c r="U22" t="n">
         <v>0.01590026402763697</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H23" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I23" t="n">
         <v>25.05372908841133</v>
@@ -32712,28 +32712,28 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K23" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L23" t="n">
         <v>102.5527878378697</v>
       </c>
       <c r="M23" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763895</v>
       </c>
       <c r="N23" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O23" t="n">
-        <v>109.4941053613919</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P23" t="n">
-        <v>93.45068569029009</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R23" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S23" t="n">
         <v>14.808685600212</v>
@@ -32742,7 +32742,7 @@
         <v>2.844762313326517</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,7 +32782,7 @@
         <v>0.3477057737364384</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I24" t="n">
         <v>11.97144878873264</v>
@@ -32791,31 +32791,31 @@
         <v>32.8505704914764</v>
       </c>
       <c r="K24" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L24" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M24" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N24" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O24" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P24" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q24" t="n">
         <v>44.38433701239168</v>
       </c>
       <c r="R24" t="n">
-        <v>21.58825847812729</v>
+        <v>21.5882584781273</v>
       </c>
       <c r="S24" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T24" t="n">
         <v>1.401498272209591</v>
@@ -32861,31 +32861,31 @@
         <v>0.2915048405066775</v>
       </c>
       <c r="H25" t="n">
-        <v>2.591743036504825</v>
+        <v>2.591743036504826</v>
       </c>
       <c r="I25" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J25" t="n">
-        <v>20.60939222382209</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K25" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L25" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M25" t="n">
-        <v>45.69470877142399</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N25" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O25" t="n">
         <v>41.20288418361658</v>
       </c>
       <c r="P25" t="n">
-        <v>35.25618543728032</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q25" t="n">
         <v>24.40955532642733</v>
@@ -32894,10 +32894,10 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S25" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T25" t="n">
-        <v>1.245520682164894</v>
+        <v>1.245520682164895</v>
       </c>
       <c r="U25" t="n">
         <v>0.01590026402763697</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6498600373104549</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H26" t="n">
-        <v>6.655379107105698</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I26" t="n">
-        <v>25.05372908841134</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J26" t="n">
-        <v>55.15605834167827</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K26" t="n">
-        <v>82.66463372102984</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L26" t="n">
         <v>102.5527878378697</v>
@@ -32964,22 +32964,22 @@
         <v>109.494105361392</v>
       </c>
       <c r="P26" t="n">
-        <v>93.45068569029013</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.17757310410944</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R26" t="n">
-        <v>40.8217705687029</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S26" t="n">
-        <v>14.80868560021201</v>
+        <v>14.808685600212</v>
       </c>
       <c r="T26" t="n">
-        <v>2.844762313326518</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05198880298483639</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3477057737364385</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H27" t="n">
-        <v>3.358105762138762</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I27" t="n">
         <v>11.97144878873264</v>
       </c>
       <c r="J27" t="n">
-        <v>32.85057049147642</v>
+        <v>32.8505704914764</v>
       </c>
       <c r="K27" t="n">
-        <v>56.14685733181779</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L27" t="n">
-        <v>75.49637863518592</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M27" t="n">
-        <v>88.10071293313179</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N27" t="n">
-        <v>90.43247665261872</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O27" t="n">
-        <v>82.72804871877447</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P27" t="n">
-        <v>66.39655253042571</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.3843370123917</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R27" t="n">
         <v>21.5882584781273</v>
       </c>
       <c r="S27" t="n">
-        <v>6.458482244622</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T27" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02287537985108149</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2915048405066776</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H28" t="n">
         <v>2.591743036504826</v>
       </c>
       <c r="I28" t="n">
-        <v>8.766345567237181</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J28" t="n">
-        <v>20.60939222382211</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K28" t="n">
-        <v>33.86756237886672</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L28" t="n">
-        <v>43.33881965132915</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M28" t="n">
-        <v>45.69470877142402</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N28" t="n">
-        <v>44.60819072953553</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O28" t="n">
-        <v>41.2028841836166</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P28" t="n">
-        <v>35.25618543728034</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.40955532642734</v>
+        <v>24.40955532642733</v>
       </c>
       <c r="R28" t="n">
         <v>13.10711764678206</v>
       </c>
       <c r="S28" t="n">
-        <v>5.080134356830007</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T28" t="n">
         <v>1.245520682164895</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01590026402763698</v>
+        <v>0.01590026402763697</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6498600373104549</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H29" t="n">
-        <v>6.655379107105698</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I29" t="n">
-        <v>25.05372908841134</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J29" t="n">
-        <v>55.15605834167827</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K29" t="n">
-        <v>82.66463372102984</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L29" t="n">
         <v>102.5527878378697</v>
@@ -33201,22 +33201,22 @@
         <v>109.494105361392</v>
       </c>
       <c r="P29" t="n">
-        <v>93.45068569029013</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q29" t="n">
-        <v>70.17757310410944</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R29" t="n">
-        <v>40.8217705687029</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S29" t="n">
-        <v>14.80868560021201</v>
+        <v>14.808685600212</v>
       </c>
       <c r="T29" t="n">
-        <v>2.844762313326518</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05198880298483639</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3477057737364385</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H30" t="n">
-        <v>3.358105762138762</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I30" t="n">
         <v>11.97144878873264</v>
       </c>
       <c r="J30" t="n">
-        <v>32.85057049147642</v>
+        <v>32.8505704914764</v>
       </c>
       <c r="K30" t="n">
-        <v>56.14685733181779</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L30" t="n">
-        <v>75.49637863518592</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M30" t="n">
-        <v>88.10071293313179</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N30" t="n">
-        <v>90.43247665261872</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O30" t="n">
-        <v>82.72804871877447</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P30" t="n">
-        <v>66.39655253042571</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.3843370123917</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R30" t="n">
         <v>21.5882584781273</v>
       </c>
       <c r="S30" t="n">
-        <v>6.458482244622</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T30" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02287537985108149</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2915048405066776</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H31" t="n">
         <v>2.591743036504826</v>
       </c>
       <c r="I31" t="n">
-        <v>8.766345567237181</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J31" t="n">
-        <v>20.60939222382211</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K31" t="n">
-        <v>33.86756237886672</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L31" t="n">
-        <v>43.33881965132915</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M31" t="n">
-        <v>45.69470877142402</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N31" t="n">
-        <v>44.60819072953553</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O31" t="n">
-        <v>41.2028841836166</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P31" t="n">
-        <v>35.25618543728034</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.40955532642734</v>
+        <v>24.40955532642733</v>
       </c>
       <c r="R31" t="n">
         <v>13.10711764678206</v>
       </c>
       <c r="S31" t="n">
-        <v>5.080134356830007</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T31" t="n">
         <v>1.245520682164895</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01590026402763698</v>
+        <v>0.01590026402763697</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6498600373104549</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H32" t="n">
-        <v>6.655379107105698</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I32" t="n">
-        <v>25.05372908841134</v>
+        <v>25.05372908841133</v>
       </c>
       <c r="J32" t="n">
-        <v>55.15605834167827</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K32" t="n">
-        <v>82.66463372102984</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L32" t="n">
         <v>102.5527878378697</v>
@@ -33438,22 +33438,22 @@
         <v>109.494105361392</v>
       </c>
       <c r="P32" t="n">
-        <v>93.45068569029013</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.17757310410944</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R32" t="n">
-        <v>40.8217705687029</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S32" t="n">
-        <v>14.80868560021201</v>
+        <v>14.808685600212</v>
       </c>
       <c r="T32" t="n">
-        <v>2.844762313326518</v>
+        <v>2.844762313326517</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05198880298483639</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3477057737364385</v>
+        <v>0.3477057737364384</v>
       </c>
       <c r="H33" t="n">
-        <v>3.358105762138762</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I33" t="n">
         <v>11.97144878873264</v>
       </c>
       <c r="J33" t="n">
-        <v>32.85057049147642</v>
+        <v>32.8505704914764</v>
       </c>
       <c r="K33" t="n">
-        <v>56.14685733181779</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L33" t="n">
-        <v>75.49637863518592</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M33" t="n">
-        <v>88.10071293313179</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N33" t="n">
-        <v>90.43247665261872</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O33" t="n">
-        <v>82.72804871877447</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P33" t="n">
-        <v>66.39655253042571</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.3843370123917</v>
+        <v>44.38433701239168</v>
       </c>
       <c r="R33" t="n">
         <v>21.5882584781273</v>
       </c>
       <c r="S33" t="n">
-        <v>6.458482244622</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T33" t="n">
         <v>1.401498272209591</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02287537985108149</v>
+        <v>0.02287537985108148</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2915048405066776</v>
+        <v>0.2915048405066775</v>
       </c>
       <c r="H34" t="n">
         <v>2.591743036504826</v>
       </c>
       <c r="I34" t="n">
-        <v>8.766345567237181</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J34" t="n">
-        <v>20.60939222382211</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K34" t="n">
-        <v>33.86756237886672</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L34" t="n">
-        <v>43.33881965132915</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M34" t="n">
-        <v>45.69470877142402</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N34" t="n">
-        <v>44.60819072953553</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O34" t="n">
-        <v>41.2028841836166</v>
+        <v>41.20288418361658</v>
       </c>
       <c r="P34" t="n">
-        <v>35.25618543728034</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.40955532642734</v>
+        <v>24.40955532642733</v>
       </c>
       <c r="R34" t="n">
         <v>13.10711764678206</v>
       </c>
       <c r="S34" t="n">
-        <v>5.080134356830007</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T34" t="n">
         <v>1.245520682164895</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01590026402763698</v>
+        <v>0.01590026402763697</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H35" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I35" t="n">
         <v>25.05372908841133</v>
@@ -33660,28 +33660,28 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K35" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L35" t="n">
         <v>102.5527878378697</v>
       </c>
       <c r="M35" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763895</v>
       </c>
       <c r="N35" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O35" t="n">
-        <v>109.4941053613919</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P35" t="n">
-        <v>93.45068569029009</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R35" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S35" t="n">
         <v>14.808685600212</v>
@@ -33690,7 +33690,7 @@
         <v>2.844762313326517</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>0.3477057737364384</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I36" t="n">
         <v>11.97144878873264</v>
@@ -33739,31 +33739,31 @@
         <v>32.8505704914764</v>
       </c>
       <c r="K36" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L36" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M36" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N36" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O36" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P36" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q36" t="n">
         <v>44.38433701239168</v>
       </c>
       <c r="R36" t="n">
-        <v>21.58825847812729</v>
+        <v>21.5882584781273</v>
       </c>
       <c r="S36" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T36" t="n">
         <v>1.401498272209591</v>
@@ -33809,31 +33809,31 @@
         <v>0.2915048405066775</v>
       </c>
       <c r="H37" t="n">
-        <v>2.591743036504825</v>
+        <v>2.591743036504826</v>
       </c>
       <c r="I37" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J37" t="n">
-        <v>20.60939222382209</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K37" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L37" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M37" t="n">
-        <v>45.69470877142399</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N37" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O37" t="n">
         <v>41.20288418361658</v>
       </c>
       <c r="P37" t="n">
-        <v>35.25618543728032</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q37" t="n">
         <v>24.40955532642733</v>
@@ -33842,10 +33842,10 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S37" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T37" t="n">
-        <v>1.245520682164894</v>
+        <v>1.245520682164895</v>
       </c>
       <c r="U37" t="n">
         <v>0.01590026402763697</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H38" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I38" t="n">
         <v>25.05372908841133</v>
@@ -33897,28 +33897,28 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K38" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L38" t="n">
         <v>102.5527878378697</v>
       </c>
       <c r="M38" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763895</v>
       </c>
       <c r="N38" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O38" t="n">
-        <v>109.4941053613919</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P38" t="n">
-        <v>93.45068569029009</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R38" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S38" t="n">
         <v>14.808685600212</v>
@@ -33927,7 +33927,7 @@
         <v>2.844762313326517</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>0.3477057737364384</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I39" t="n">
         <v>11.97144878873264</v>
@@ -33976,31 +33976,31 @@
         <v>32.8505704914764</v>
       </c>
       <c r="K39" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L39" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M39" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N39" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O39" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P39" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q39" t="n">
         <v>44.38433701239168</v>
       </c>
       <c r="R39" t="n">
-        <v>21.58825847812729</v>
+        <v>21.5882584781273</v>
       </c>
       <c r="S39" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T39" t="n">
         <v>1.401498272209591</v>
@@ -34046,31 +34046,31 @@
         <v>0.2915048405066775</v>
       </c>
       <c r="H40" t="n">
-        <v>2.591743036504825</v>
+        <v>2.591743036504826</v>
       </c>
       <c r="I40" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J40" t="n">
-        <v>20.60939222382209</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K40" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L40" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M40" t="n">
-        <v>45.69470877142399</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N40" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O40" t="n">
         <v>41.20288418361658</v>
       </c>
       <c r="P40" t="n">
-        <v>35.25618543728032</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q40" t="n">
         <v>24.40955532642733</v>
@@ -34079,10 +34079,10 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S40" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T40" t="n">
-        <v>1.245520682164894</v>
+        <v>1.245520682164895</v>
       </c>
       <c r="U40" t="n">
         <v>0.01590026402763697</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H41" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I41" t="n">
         <v>25.05372908841133</v>
@@ -34134,28 +34134,28 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K41" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L41" t="n">
         <v>102.5527878378697</v>
       </c>
       <c r="M41" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763895</v>
       </c>
       <c r="N41" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O41" t="n">
-        <v>109.4941053613919</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P41" t="n">
-        <v>93.45068569029009</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R41" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S41" t="n">
         <v>14.808685600212</v>
@@ -34164,7 +34164,7 @@
         <v>2.844762313326517</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,7 +34204,7 @@
         <v>0.3477057737364384</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I42" t="n">
         <v>11.97144878873264</v>
@@ -34213,31 +34213,31 @@
         <v>32.8505704914764</v>
       </c>
       <c r="K42" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L42" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M42" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N42" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O42" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P42" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q42" t="n">
         <v>44.38433701239168</v>
       </c>
       <c r="R42" t="n">
-        <v>21.58825847812729</v>
+        <v>21.5882584781273</v>
       </c>
       <c r="S42" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T42" t="n">
         <v>1.401498272209591</v>
@@ -34283,31 +34283,31 @@
         <v>0.2915048405066775</v>
       </c>
       <c r="H43" t="n">
-        <v>2.591743036504825</v>
+        <v>2.591743036504826</v>
       </c>
       <c r="I43" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J43" t="n">
-        <v>20.60939222382209</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K43" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L43" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M43" t="n">
-        <v>45.69470877142399</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N43" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O43" t="n">
         <v>41.20288418361658</v>
       </c>
       <c r="P43" t="n">
-        <v>35.25618543728032</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q43" t="n">
         <v>24.40955532642733</v>
@@ -34316,10 +34316,10 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S43" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T43" t="n">
-        <v>1.245520682164894</v>
+        <v>1.245520682164895</v>
       </c>
       <c r="U43" t="n">
         <v>0.01590026402763697</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6498600373104546</v>
+        <v>0.6498600373104547</v>
       </c>
       <c r="H44" t="n">
-        <v>6.655379107105695</v>
+        <v>6.655379107105696</v>
       </c>
       <c r="I44" t="n">
         <v>25.05372908841133</v>
@@ -34371,28 +34371,28 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K44" t="n">
-        <v>82.6646337210298</v>
+        <v>82.66463372102982</v>
       </c>
       <c r="L44" t="n">
         <v>102.5527878378697</v>
       </c>
       <c r="M44" t="n">
-        <v>114.1097362763894</v>
+        <v>114.1097362763895</v>
       </c>
       <c r="N44" t="n">
         <v>115.9561511073978</v>
       </c>
       <c r="O44" t="n">
-        <v>109.4941053613919</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P44" t="n">
-        <v>93.45068569029009</v>
+        <v>93.4506856902901</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.1775731041094</v>
+        <v>70.17757310410941</v>
       </c>
       <c r="R44" t="n">
-        <v>40.82177056870288</v>
+        <v>40.82177056870289</v>
       </c>
       <c r="S44" t="n">
         <v>14.808685600212</v>
@@ -34401,7 +34401,7 @@
         <v>2.844762313326517</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05198880298483636</v>
+        <v>0.05198880298483637</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,7 +34441,7 @@
         <v>0.3477057737364384</v>
       </c>
       <c r="H45" t="n">
-        <v>3.35810576213876</v>
+        <v>3.358105762138761</v>
       </c>
       <c r="I45" t="n">
         <v>11.97144878873264</v>
@@ -34450,31 +34450,31 @@
         <v>32.8505704914764</v>
       </c>
       <c r="K45" t="n">
-        <v>56.14685733181776</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L45" t="n">
-        <v>75.49637863518588</v>
+        <v>75.49637863518589</v>
       </c>
       <c r="M45" t="n">
-        <v>88.10071293313175</v>
+        <v>88.10071293313176</v>
       </c>
       <c r="N45" t="n">
-        <v>90.43247665261867</v>
+        <v>90.43247665261869</v>
       </c>
       <c r="O45" t="n">
-        <v>82.72804871877443</v>
+        <v>82.72804871877445</v>
       </c>
       <c r="P45" t="n">
-        <v>66.39655253042567</v>
+        <v>66.39655253042568</v>
       </c>
       <c r="Q45" t="n">
         <v>44.38433701239168</v>
       </c>
       <c r="R45" t="n">
-        <v>21.58825847812729</v>
+        <v>21.5882584781273</v>
       </c>
       <c r="S45" t="n">
-        <v>6.458482244621997</v>
+        <v>6.458482244621998</v>
       </c>
       <c r="T45" t="n">
         <v>1.401498272209591</v>
@@ -34520,31 +34520,31 @@
         <v>0.2915048405066775</v>
       </c>
       <c r="H46" t="n">
-        <v>2.591743036504825</v>
+        <v>2.591743036504826</v>
       </c>
       <c r="I46" t="n">
-        <v>8.766345567237176</v>
+        <v>8.766345567237178</v>
       </c>
       <c r="J46" t="n">
-        <v>20.60939222382209</v>
+        <v>20.6093922238221</v>
       </c>
       <c r="K46" t="n">
-        <v>33.8675623788667</v>
+        <v>33.86756237886671</v>
       </c>
       <c r="L46" t="n">
-        <v>43.33881965132913</v>
+        <v>43.33881965132914</v>
       </c>
       <c r="M46" t="n">
-        <v>45.69470877142399</v>
+        <v>45.694708771424</v>
       </c>
       <c r="N46" t="n">
-        <v>44.6081907295355</v>
+        <v>44.60819072953551</v>
       </c>
       <c r="O46" t="n">
         <v>41.20288418361658</v>
       </c>
       <c r="P46" t="n">
-        <v>35.25618543728032</v>
+        <v>35.25618543728033</v>
       </c>
       <c r="Q46" t="n">
         <v>24.40955532642733</v>
@@ -34553,10 +34553,10 @@
         <v>13.10711764678206</v>
       </c>
       <c r="S46" t="n">
-        <v>5.080134356830005</v>
+        <v>5.080134356830006</v>
       </c>
       <c r="T46" t="n">
-        <v>1.245520682164894</v>
+        <v>1.245520682164895</v>
       </c>
       <c r="U46" t="n">
         <v>0.01590026402763697</v>
@@ -34774,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,10 +34938,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35345,13 +35345,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>24.64110760927993</v>
       </c>
       <c r="J11" t="n">
-        <v>166.4878466158451</v>
+        <v>494.8072577890701</v>
       </c>
       <c r="K11" t="n">
-        <v>740.499243780122</v>
+        <v>317.1502502328167</v>
       </c>
       <c r="L11" t="n">
         <v>102.5527878378697</v>
@@ -35427,10 +35427,10 @@
         <v>740.499243780122</v>
       </c>
       <c r="P11" t="n">
-        <v>93.4506856902899</v>
+        <v>740.499243780122</v>
       </c>
       <c r="Q11" t="n">
-        <v>622.1965488198616</v>
+        <v>70.17757310410934</v>
       </c>
       <c r="R11" t="n">
         <v>211.6844622384574</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.29839137505344</v>
+        <v>38.29839137505345</v>
       </c>
       <c r="J12" t="n">
         <v>360.6872623765394</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>108.0636196629027</v>
+        <v>108.0636196629028</v>
       </c>
       <c r="K13" t="n">
-        <v>311.4013548749633</v>
+        <v>311.4013548749627</v>
       </c>
       <c r="L13" t="n">
-        <v>465.7730436593706</v>
+        <v>465.7730436593707</v>
       </c>
       <c r="M13" t="n">
-        <v>509.8198271359827</v>
+        <v>509.8198271359828</v>
       </c>
       <c r="N13" t="n">
         <v>491.334254525136</v>
       </c>
       <c r="O13" t="n">
-        <v>465.1112167349111</v>
+        <v>465.1112167349113</v>
       </c>
       <c r="P13" t="n">
         <v>386.2732500537873</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.3012471085813</v>
+        <v>194.3012471085808</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>494.8072577890701</v>
       </c>
       <c r="K14" t="n">
-        <v>566.9991046055499</v>
+        <v>740.4992437801221</v>
       </c>
       <c r="L14" t="n">
         <v>102.5527878378696</v>
@@ -35661,13 +35661,13 @@
         <v>115.9561511073978</v>
       </c>
       <c r="O14" t="n">
-        <v>109.494105361392</v>
+        <v>740.4992437801225</v>
       </c>
       <c r="P14" t="n">
-        <v>740.499243780122</v>
+        <v>488.012941902572</v>
       </c>
       <c r="Q14" t="n">
-        <v>622.1965488198616</v>
+        <v>70.17757310410934</v>
       </c>
       <c r="R14" t="n">
         <v>40.82177056870296</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.29839137505343</v>
+        <v>38.29839137505345</v>
       </c>
       <c r="J15" t="n">
         <v>360.6872623765394</v>
       </c>
       <c r="K15" t="n">
-        <v>135.546490452441</v>
+        <v>56.14685733181778</v>
       </c>
       <c r="L15" t="n">
         <v>75.49637863518592</v>
@@ -35743,7 +35743,7 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P15" t="n">
-        <v>66.39655253042565</v>
+        <v>145.7961856510489</v>
       </c>
       <c r="Q15" t="n">
         <v>590.5852851255994</v>
@@ -35883,13 +35883,13 @@
         <v>24.64110760927993</v>
       </c>
       <c r="J17" t="n">
-        <v>494.8072577890701</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K17" t="n">
-        <v>925.4427064060582</v>
+        <v>925.4427064060581</v>
       </c>
       <c r="L17" t="n">
-        <v>496.915757430284</v>
+        <v>1188.471945669041</v>
       </c>
       <c r="M17" t="n">
         <v>114.1097362763894</v>
@@ -35901,13 +35901,13 @@
         <v>1099.57457664453</v>
       </c>
       <c r="P17" t="n">
-        <v>930.127326936145</v>
+        <v>930.1273269361445</v>
       </c>
       <c r="Q17" t="n">
-        <v>622.1965488198612</v>
+        <v>541.1542516982508</v>
       </c>
       <c r="R17" t="n">
-        <v>211.6844622384569</v>
+        <v>40.82177056870296</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J18" t="n">
-        <v>32.85057049147639</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K18" t="n">
-        <v>743.7564735645221</v>
+        <v>135.5464904524409</v>
       </c>
       <c r="L18" t="n">
         <v>75.49637863518592</v>
@@ -35974,19 +35974,19 @@
         <v>88.10071293313172</v>
       </c>
       <c r="N18" t="n">
-        <v>90.43247665261856</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O18" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P18" t="n">
-        <v>476.9074935123701</v>
+        <v>66.39655253042565</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255995</v>
       </c>
       <c r="R18" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>108.063619662903</v>
+        <v>108.0636196629028</v>
       </c>
       <c r="K19" t="n">
-        <v>311.4013548749631</v>
+        <v>311.4013548749633</v>
       </c>
       <c r="L19" t="n">
         <v>465.7730436593706</v>
       </c>
       <c r="M19" t="n">
-        <v>509.8198271359825</v>
+        <v>509.8198271359827</v>
       </c>
       <c r="N19" t="n">
         <v>491.3342545251362</v>
@@ -36059,10 +36059,10 @@
         <v>465.1112167349111</v>
       </c>
       <c r="P19" t="n">
-        <v>386.2732500537868</v>
+        <v>386.2732500537873</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.3012471085804</v>
+        <v>194.3012471085813</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>55.15605834167825</v>
       </c>
       <c r="K20" t="n">
-        <v>82.66463372102982</v>
+        <v>925.4427064060582</v>
       </c>
       <c r="L20" t="n">
-        <v>1044.201613105189</v>
+        <v>1188.471945669041</v>
       </c>
       <c r="M20" t="n">
         <v>1271.709457894106</v>
@@ -36135,7 +36135,7 @@
         <v>1253.058154578556</v>
       </c>
       <c r="O20" t="n">
-        <v>1099.57457664453</v>
+        <v>109.494105361392</v>
       </c>
       <c r="P20" t="n">
         <v>93.4506856902899</v>
@@ -36144,7 +36144,7 @@
         <v>70.1775731041098</v>
       </c>
       <c r="R20" t="n">
-        <v>40.82177056870296</v>
+        <v>43.85383660296066</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2983913750536</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J21" t="n">
         <v>360.6872623765394</v>
       </c>
       <c r="K21" t="n">
-        <v>135.5464904524401</v>
+        <v>135.5464904524409</v>
       </c>
       <c r="L21" t="n">
         <v>75.49637863518592</v>
       </c>
       <c r="M21" t="n">
-        <v>88.10071293313194</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N21" t="n">
-        <v>90.43247665261879</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O21" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P21" t="n">
         <v>66.39655253042565</v>
@@ -36223,7 +36223,7 @@
         <v>590.5852851255995</v>
       </c>
       <c r="R21" t="n">
-        <v>139.9445999875616</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>24.64110760927993</v>
       </c>
       <c r="J23" t="n">
-        <v>494.8072577890701</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K23" t="n">
         <v>925.4427064060582</v>
@@ -36366,22 +36366,22 @@
         <v>1188.471945669041</v>
       </c>
       <c r="M23" t="n">
-        <v>1249.310660566625</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N23" t="n">
         <v>115.956151107398</v>
       </c>
       <c r="O23" t="n">
-        <v>109.494105361392</v>
+        <v>1099.57457664453</v>
       </c>
       <c r="P23" t="n">
-        <v>93.4506856902899</v>
+        <v>930.1273269361445</v>
       </c>
       <c r="Q23" t="n">
-        <v>622.1965488198612</v>
+        <v>541.1542516982499</v>
       </c>
       <c r="R23" t="n">
-        <v>211.6844622384569</v>
+        <v>40.82177056870296</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>360.6872623765394</v>
       </c>
       <c r="K24" t="n">
-        <v>135.5464904524409</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L24" t="n">
         <v>75.49637863518592</v>
@@ -36454,7 +36454,7 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P24" t="n">
-        <v>66.39655253042565</v>
+        <v>145.7961856510489</v>
       </c>
       <c r="Q24" t="n">
         <v>590.5852851255995</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>24.64110760927994</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J26" t="n">
-        <v>55.15605834167829</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K26" t="n">
-        <v>82.66463372102987</v>
+        <v>82.66463372102984</v>
       </c>
       <c r="L26" t="n">
-        <v>1188.471945669041</v>
+        <v>813.1057177612979</v>
       </c>
       <c r="M26" t="n">
-        <v>1271.709457894106</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N26" t="n">
-        <v>1253.058154578557</v>
+        <v>1253.058154578556</v>
       </c>
       <c r="O26" t="n">
-        <v>955.3042440806771</v>
+        <v>1099.57457664453</v>
       </c>
       <c r="P26" t="n">
-        <v>93.4506856902899</v>
+        <v>930.127326936145</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.1775731041098</v>
+        <v>622.1965488198621</v>
       </c>
       <c r="R26" t="n">
         <v>40.82177056870296</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>38.2983913750536</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J27" t="n">
         <v>360.6872623765394</v>
       </c>
       <c r="K27" t="n">
-        <v>135.5464904524401</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L27" t="n">
         <v>75.49637863518592</v>
       </c>
       <c r="M27" t="n">
-        <v>88.10071293313194</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N27" t="n">
-        <v>90.43247665261879</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O27" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P27" t="n">
-        <v>66.39655253042565</v>
+        <v>145.7961856510489</v>
       </c>
       <c r="Q27" t="n">
         <v>590.5852851255995</v>
       </c>
       <c r="R27" t="n">
-        <v>139.9445999875616</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>24.64110760927994</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J29" t="n">
-        <v>494.8072577890701</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K29" t="n">
         <v>925.4427064060582</v>
       </c>
       <c r="L29" t="n">
-        <v>102.5527878378698</v>
+        <v>1188.471945669041</v>
       </c>
       <c r="M29" t="n">
-        <v>679.3353975385576</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N29" t="n">
         <v>115.956151107398</v>
@@ -36849,10 +36849,10 @@
         <v>1099.57457664453</v>
       </c>
       <c r="P29" t="n">
-        <v>930.127326936145</v>
+        <v>930.1273269361445</v>
       </c>
       <c r="Q29" t="n">
-        <v>622.1965488198612</v>
+        <v>541.1542516982499</v>
       </c>
       <c r="R29" t="n">
         <v>40.82177056870296</v>
@@ -36910,31 +36910,31 @@
         <v>38.29839137505344</v>
       </c>
       <c r="J30" t="n">
-        <v>32.85057049147642</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K30" t="n">
-        <v>56.14685733181778</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L30" t="n">
-        <v>75.49637863518589</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M30" t="n">
-        <v>88.10071293313177</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N30" t="n">
-        <v>90.43247665261873</v>
+        <v>90.43247665261867</v>
       </c>
       <c r="O30" t="n">
-        <v>1106.770078838271</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P30" t="n">
-        <v>114.1481370392569</v>
+        <v>145.7961856510489</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255995</v>
       </c>
       <c r="R30" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>24.64110760927994</v>
+        <v>24.64110760927993</v>
       </c>
       <c r="J32" t="n">
-        <v>55.15605834167829</v>
+        <v>494.80725778907</v>
       </c>
       <c r="K32" t="n">
-        <v>82.66463372102987</v>
+        <v>925.4427064060581</v>
       </c>
       <c r="L32" t="n">
-        <v>102.5527878378697</v>
+        <v>667.7784491000364</v>
       </c>
       <c r="M32" t="n">
-        <v>1271.709457894106</v>
+        <v>114.1097362763894</v>
       </c>
       <c r="N32" t="n">
-        <v>1253.058154578556</v>
+        <v>115.956151107398</v>
       </c>
       <c r="O32" t="n">
         <v>1099.57457664453</v>
@@ -37089,7 +37089,7 @@
         <v>930.127326936145</v>
       </c>
       <c r="Q32" t="n">
-        <v>175.1497571255741</v>
+        <v>622.1965488198621</v>
       </c>
       <c r="R32" t="n">
         <v>40.82177056870296</v>
@@ -37150,22 +37150,22 @@
         <v>360.6872623765394</v>
       </c>
       <c r="K33" t="n">
-        <v>135.5464904524407</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L33" t="n">
         <v>75.49637863518592</v>
       </c>
       <c r="M33" t="n">
-        <v>88.10071293313183</v>
+        <v>88.10071293313172</v>
       </c>
       <c r="N33" t="n">
         <v>90.43247665261867</v>
       </c>
       <c r="O33" t="n">
-        <v>82.72804871877452</v>
+        <v>82.7280487187744</v>
       </c>
       <c r="P33" t="n">
-        <v>66.39655253042565</v>
+        <v>145.7961856510489</v>
       </c>
       <c r="Q33" t="n">
         <v>590.5852851255995</v>
@@ -37305,16 +37305,16 @@
         <v>24.64110760927993</v>
       </c>
       <c r="J35" t="n">
-        <v>55.15605834167825</v>
+        <v>55.15605834167826</v>
       </c>
       <c r="K35" t="n">
-        <v>82.66463372102982</v>
+        <v>82.66463372102979</v>
       </c>
       <c r="L35" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M35" t="n">
-        <v>290.7624840844003</v>
+        <v>824.6626661998195</v>
       </c>
       <c r="N35" t="n">
         <v>1253.058154578556</v>
@@ -37323,10 +37323,10 @@
         <v>1099.57457664453</v>
       </c>
       <c r="P35" t="n">
-        <v>930.1273269361445</v>
+        <v>930.127326936145</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.1775731041098</v>
+        <v>622.1965488198621</v>
       </c>
       <c r="R35" t="n">
         <v>40.82177056870296</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>38.29839137505344</v>
+        <v>38.29839137505346</v>
       </c>
       <c r="J36" t="n">
-        <v>276.6409866559679</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K36" t="n">
-        <v>56.14685733181778</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L36" t="n">
-        <v>75.49637863518586</v>
+        <v>75.49637863518592</v>
       </c>
       <c r="M36" t="n">
         <v>88.10071293313172</v>
@@ -37402,13 +37402,13 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P36" t="n">
-        <v>894.3997509942623</v>
+        <v>145.7961856510489</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.3843370123916</v>
+        <v>590.5852851255995</v>
       </c>
       <c r="R36" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>108.0636196629028</v>
       </c>
       <c r="K37" t="n">
-        <v>311.4013548749633</v>
+        <v>311.4013548749632</v>
       </c>
       <c r="L37" t="n">
         <v>465.7730436593706</v>
@@ -37542,13 +37542,13 @@
         <v>24.64110760927993</v>
       </c>
       <c r="J38" t="n">
-        <v>494.80725778907</v>
+        <v>55.15605834167825</v>
       </c>
       <c r="K38" t="n">
-        <v>923.5416272251343</v>
+        <v>925.4427064060582</v>
       </c>
       <c r="L38" t="n">
-        <v>1188.471945669041</v>
+        <v>102.5527878378696</v>
       </c>
       <c r="M38" t="n">
         <v>114.1097362763894</v>
@@ -37557,16 +37557,16 @@
         <v>1253.058154578556</v>
       </c>
       <c r="O38" t="n">
-        <v>109.494105361392</v>
+        <v>1099.57457664453</v>
       </c>
       <c r="P38" t="n">
-        <v>93.4506856902899</v>
+        <v>930.1273269361445</v>
       </c>
       <c r="Q38" t="n">
-        <v>622.1965488198621</v>
+        <v>489.9714060582628</v>
       </c>
       <c r="R38" t="n">
-        <v>211.6844622384569</v>
+        <v>40.82177056870296</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>360.6872623765394</v>
       </c>
       <c r="K39" t="n">
-        <v>135.5464904524409</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L39" t="n">
         <v>75.49637863518592</v>
@@ -37639,7 +37639,7 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P39" t="n">
-        <v>66.39655253042565</v>
+        <v>145.7961856510489</v>
       </c>
       <c r="Q39" t="n">
         <v>590.5852851255995</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>108.063619662903</v>
+        <v>108.0636196629028</v>
       </c>
       <c r="K40" t="n">
-        <v>311.4013548749631</v>
+        <v>311.4013548749633</v>
       </c>
       <c r="L40" t="n">
         <v>465.7730436593706</v>
       </c>
       <c r="M40" t="n">
-        <v>509.8198271359825</v>
+        <v>509.8198271359827</v>
       </c>
       <c r="N40" t="n">
         <v>491.3342545251362</v>
@@ -37718,10 +37718,10 @@
         <v>465.1112167349111</v>
       </c>
       <c r="P40" t="n">
-        <v>386.2732500537868</v>
+        <v>386.2732500537873</v>
       </c>
       <c r="Q40" t="n">
-        <v>194.3012471085804</v>
+        <v>194.3012471085813</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>494.8072577890701</v>
       </c>
       <c r="K41" t="n">
-        <v>740.4992437801219</v>
+        <v>412.179832606897</v>
       </c>
       <c r="L41" t="n">
-        <v>102.5527878378696</v>
+        <v>102.5527878378697</v>
       </c>
       <c r="M41" t="n">
         <v>114.1097362763894</v>
@@ -37794,13 +37794,13 @@
         <v>115.9561511073978</v>
       </c>
       <c r="O41" t="n">
-        <v>317.1502502328169</v>
+        <v>740.499243780122</v>
       </c>
       <c r="P41" t="n">
-        <v>740.499243780122</v>
+        <v>93.4506856902899</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.17757310410934</v>
+        <v>622.1965488198616</v>
       </c>
       <c r="R41" t="n">
         <v>211.6844622384574</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>38.29839137505345</v>
+        <v>38.29839137505344</v>
       </c>
       <c r="J42" t="n">
         <v>360.6872623765394</v>
@@ -37876,13 +37876,13 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P42" t="n">
-        <v>740.4992437801219</v>
+        <v>145.796185651049</v>
       </c>
       <c r="Q42" t="n">
-        <v>114.2385685059605</v>
+        <v>590.5852851255994</v>
       </c>
       <c r="R42" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>108.0636196629028</v>
+        <v>108.0636196629027</v>
       </c>
       <c r="K43" t="n">
-        <v>311.4013548749632</v>
+        <v>311.4013548749633</v>
       </c>
       <c r="L43" t="n">
         <v>465.7730436593706</v>
@@ -37949,10 +37949,10 @@
         <v>509.8198271359827</v>
       </c>
       <c r="N43" t="n">
-        <v>491.3342545251362</v>
+        <v>491.334254525136</v>
       </c>
       <c r="O43" t="n">
-        <v>465.1112167349108</v>
+        <v>465.1112167349111</v>
       </c>
       <c r="P43" t="n">
         <v>386.2732500537873</v>
@@ -38019,7 +38019,7 @@
         <v>494.8072577890701</v>
       </c>
       <c r="K44" t="n">
-        <v>396.1364129357944</v>
+        <v>412.1798326068965</v>
       </c>
       <c r="L44" t="n">
         <v>102.5527878378697</v>
@@ -38031,10 +38031,10 @@
         <v>115.9561511073978</v>
       </c>
       <c r="O44" t="n">
-        <v>109.494105361392</v>
+        <v>740.499243780122</v>
       </c>
       <c r="P44" t="n">
-        <v>740.499243780122</v>
+        <v>93.4506856902899</v>
       </c>
       <c r="Q44" t="n">
         <v>622.1965488198616</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.97144878873264</v>
+        <v>38.29839137505345</v>
       </c>
       <c r="J45" t="n">
-        <v>32.8505704914764</v>
+        <v>360.6872623765394</v>
       </c>
       <c r="K45" t="n">
-        <v>608.0664664332589</v>
+        <v>56.14685733181773</v>
       </c>
       <c r="L45" t="n">
         <v>75.49637863518592</v>
@@ -38113,13 +38113,13 @@
         <v>82.7280487187744</v>
       </c>
       <c r="P45" t="n">
-        <v>66.39655253042565</v>
+        <v>145.796185651049</v>
       </c>
       <c r="Q45" t="n">
-        <v>590.5852851255993</v>
+        <v>590.5852851255994</v>
       </c>
       <c r="R45" t="n">
-        <v>21.58825847812727</v>
+        <v>139.9445999875613</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>108.0636196629028</v>
       </c>
       <c r="K46" t="n">
-        <v>311.4013548749632</v>
+        <v>311.4013548749627</v>
       </c>
       <c r="L46" t="n">
         <v>465.7730436593707</v>
@@ -38195,7 +38195,7 @@
         <v>386.2732500537873</v>
       </c>
       <c r="Q46" t="n">
-        <v>194.3012471085804</v>
+        <v>194.3012471085808</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
